--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_20.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>812430.2914413017</v>
+        <v>811997.9103397239</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>217325.2790073361</v>
+        <v>217325.2790073378</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736552</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G2" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>127.5958534503633</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>143.8464360989393</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,13 +738,13 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>11.27580515001511</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
         <v>216.3098444776729</v>
@@ -798,13 +798,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>154.2165442711515</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>96.92127956682586</v>
+        <v>109.7834687444475</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
         <v>10.00967878293136</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>47.09951602493008</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>301.1431546852109</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -987,10 +987,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
         <v>67.69846245683961</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>0.3208907517014972</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>126.2616053443833</v>
       </c>
     </row>
     <row r="7">
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>100.68280137235</v>
       </c>
       <c r="U7" t="n">
-        <v>128.9874563185103</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>101.1209486037592</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>28.3713709394444</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
@@ -1215,10 +1215,10 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
@@ -1230,7 +1230,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,19 +1260,19 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>47.11539393650553</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>226.4616797617367</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>145.8351811928814</v>
+        <v>164.6770637268295</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,19 +1373,19 @@
         <v>287.1002389863813</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>278.0815430309093</v>
       </c>
       <c r="E11" t="n">
         <v>299.8236806008148</v>
       </c>
       <c r="F11" t="n">
-        <v>318.9954966887919</v>
+        <v>318.995496688792</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>320.9287645862145</v>
       </c>
       <c r="H11" t="n">
-        <v>238.4788795645244</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>20.40088410436191</v>
+        <v>89.08715562760513</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>161.3223008290065</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>267.8953987468356</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>287.1956569795822</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5922547757809</v>
+        <v>298.592254775781</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H12" t="n">
-        <v>98.93847887876893</v>
+        <v>84.3729875932661</v>
       </c>
       <c r="I12" t="n">
         <v>67.69846245683961</v>
@@ -1503,7 +1503,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U12" t="n">
-        <v>201.7443531921696</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V12" t="n">
         <v>226.1116663261494</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>55.84934490199102</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>76.90562774879712</v>
+        <v>76.90562774879713</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>31.19630285558052</v>
       </c>
       <c r="E13" t="n">
-        <v>59.47474200215495</v>
+        <v>59.47474200215497</v>
       </c>
       <c r="F13" t="n">
-        <v>59.94166633034126</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>76.2163690516891</v>
+        <v>76.21636905168911</v>
       </c>
       <c r="H13" t="n">
-        <v>66.76473667437952</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>51.74683185920888</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.01238147762618</v>
+        <v>57.01238147762619</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>139.8329815583386</v>
       </c>
       <c r="U13" t="n">
-        <v>193.3041550216517</v>
+        <v>193.3041550216518</v>
       </c>
       <c r="V13" t="n">
-        <v>167.1137693030222</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>192.2806553736355</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>137.9257573694386</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>128.8006251255063</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>293.6545267831698</v>
+        <v>293.6545267831704</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>281.6658437408521</v>
       </c>
       <c r="D14" t="n">
-        <v>142.2360479960537</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>294.3892853552851</v>
+        <v>294.3892853552856</v>
       </c>
       <c r="F14" t="n">
-        <v>313.5611014432623</v>
+        <v>313.5611014432628</v>
       </c>
       <c r="G14" t="n">
-        <v>315.4943693406848</v>
+        <v>315.4943693406853</v>
       </c>
       <c r="H14" t="n">
-        <v>233.0444843189947</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>74.64044946362286</v>
+        <v>74.64044946362337</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>88.908108276281</v>
       </c>
       <c r="T14" t="n">
-        <v>125.6667794666298</v>
+        <v>125.6667794666304</v>
       </c>
       <c r="U14" t="n">
-        <v>155.8879055834768</v>
+        <v>155.8879055834773</v>
       </c>
       <c r="V14" t="n">
-        <v>237.160904023349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>262.4610035013064</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>272.564340350206</v>
       </c>
       <c r="Y14" t="n">
-        <v>293.1578595302512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>53.13297117133678</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050097</v>
       </c>
       <c r="S15" t="n">
         <v>151.2714921173871</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>85.27123765786693</v>
+        <v>37.25286130068464</v>
       </c>
       <c r="C16" t="n">
-        <v>71.47123250326742</v>
+        <v>71.47123250326793</v>
       </c>
       <c r="D16" t="n">
-        <v>55.09259690084581</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>54.04034675662525</v>
+        <v>54.04034675662577</v>
       </c>
       <c r="F16" t="n">
-        <v>54.50727108481156</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>70.7819738061594</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>61.33034142884982</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>23.47182547255731</v>
+        <v>46.31243661367968</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.57798623209648</v>
+        <v>51.57798623209699</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>134.3985863128094</v>
       </c>
       <c r="U16" t="n">
-        <v>187.869759776122</v>
+        <v>187.8697597761225</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6793740574925</v>
+        <v>161.679374057493</v>
       </c>
       <c r="W16" t="n">
-        <v>186.8462601281058</v>
+        <v>186.8462601281063</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>132.4913621239094</v>
       </c>
       <c r="Y16" t="n">
-        <v>123.3662298799766</v>
+        <v>123.3662298799771</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>223.9740389803821</v>
+        <v>223.974038980382</v>
       </c>
       <c r="C17" t="n">
-        <v>211.9853559380638</v>
+        <v>211.9853559380637</v>
       </c>
       <c r="D17" t="n">
-        <v>202.9666599825918</v>
+        <v>202.9666599825917</v>
       </c>
       <c r="E17" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F17" t="n">
-        <v>243.8806136404745</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G17" t="n">
-        <v>245.813881537897</v>
+        <v>245.8138815378969</v>
       </c>
       <c r="H17" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I17" t="n">
-        <v>4.959961660835063</v>
+        <v>4.959961660835006</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>19.22762047349269</v>
+        <v>19.22762047349264</v>
       </c>
       <c r="T17" t="n">
-        <v>55.98629166384205</v>
+        <v>55.98629166384263</v>
       </c>
       <c r="U17" t="n">
-        <v>86.20741778068901</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V17" t="n">
-        <v>167.4804162205612</v>
+        <v>167.4804162205611</v>
       </c>
       <c r="W17" t="n">
-        <v>192.7805156985181</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X17" t="n">
-        <v>212.0807739312647</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y17" t="n">
-        <v>223.4773717274635</v>
+        <v>223.4773717274634</v>
       </c>
     </row>
     <row r="18">
@@ -1932,7 +1932,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>118.7813687841216</v>
       </c>
       <c r="G18" t="n">
         <v>127.4412149769483</v>
@@ -1983,7 +1983,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
-        <v>224.3372187935202</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X18" t="n">
         <v>195.9378182409833</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.59074985507914</v>
+        <v>15.59074985507908</v>
       </c>
       <c r="C19" t="n">
-        <v>1.790744700479621</v>
+        <v>1.790744700479564</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.101486003371605</v>
+        <v>1.101486003371548</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>45.44359982789243</v>
+        <v>45.44359982789237</v>
       </c>
       <c r="T19" t="n">
-        <v>64.71809851002106</v>
+        <v>64.71809851002101</v>
       </c>
       <c r="U19" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V19" t="n">
-        <v>91.99888625470473</v>
+        <v>91.99888625470467</v>
       </c>
       <c r="W19" t="n">
-        <v>117.165772325318</v>
+        <v>117.1657723253179</v>
       </c>
       <c r="X19" t="n">
-        <v>62.8108743211211</v>
+        <v>62.81087432112105</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.68574207718879</v>
+        <v>53.68574207718873</v>
       </c>
     </row>
     <row r="20">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>143.259757067945</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
         <v>160.0866360314548</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S24" t="n">
         <v>151.2714921173871</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>261.3037924784243</v>
+        <v>261.3037924784245</v>
       </c>
       <c r="C26" t="n">
-        <v>249.315109436106</v>
+        <v>249.3151094361062</v>
       </c>
       <c r="D26" t="n">
-        <v>240.296413480634</v>
+        <v>240.2964134806342</v>
       </c>
       <c r="E26" t="n">
-        <v>262.0385510505395</v>
+        <v>262.0385510505397</v>
       </c>
       <c r="F26" t="n">
-        <v>281.2103671385166</v>
+        <v>281.2103671385169</v>
       </c>
       <c r="G26" t="n">
-        <v>283.1436350359392</v>
+        <v>283.1436350359394</v>
       </c>
       <c r="H26" t="n">
-        <v>200.6937500142491</v>
+        <v>200.6937500142493</v>
       </c>
       <c r="I26" t="n">
-        <v>42.28971515887724</v>
+        <v>42.28971515887747</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>56.55737397153487</v>
+        <v>56.5573739715351</v>
       </c>
       <c r="T26" t="n">
-        <v>93.31604516188423</v>
+        <v>93.31604516188446</v>
       </c>
       <c r="U26" t="n">
-        <v>123.5371712787312</v>
+        <v>123.5371712787314</v>
       </c>
       <c r="V26" t="n">
-        <v>204.8101697186034</v>
+        <v>204.8101697186036</v>
       </c>
       <c r="W26" t="n">
-        <v>230.1102691965603</v>
+        <v>230.1102691965605</v>
       </c>
       <c r="X26" t="n">
-        <v>249.4105274293069</v>
+        <v>249.4105274293071</v>
       </c>
       <c r="Y26" t="n">
-        <v>260.8071252255056</v>
+        <v>260.8071252255058</v>
       </c>
     </row>
     <row r="27">
@@ -2685,13 +2685,13 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T27" t="n">
-        <v>172.2327615101711</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U27" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V27" t="n">
-        <v>226.1116663261494</v>
+        <v>211.546175040646</v>
       </c>
       <c r="W27" t="n">
         <v>238.9027100790231</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>52.92050335312132</v>
+        <v>52.92050335312155</v>
       </c>
       <c r="C28" t="n">
-        <v>39.1204981985218</v>
+        <v>39.12049819852203</v>
       </c>
       <c r="D28" t="n">
-        <v>22.74186259610019</v>
+        <v>22.74186259610042</v>
       </c>
       <c r="E28" t="n">
-        <v>21.68961245187964</v>
+        <v>21.68961245187987</v>
       </c>
       <c r="F28" t="n">
-        <v>22.15653678006595</v>
+        <v>22.15653678006618</v>
       </c>
       <c r="G28" t="n">
-        <v>38.43123950141378</v>
+        <v>38.43123950141401</v>
       </c>
       <c r="H28" t="n">
-        <v>28.97960712410421</v>
+        <v>28.97960712410443</v>
       </c>
       <c r="I28" t="n">
-        <v>13.96170230893355</v>
+        <v>13.96170230893378</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.22725192735086</v>
+        <v>19.22725192735109</v>
       </c>
       <c r="S28" t="n">
-        <v>82.77335332593461</v>
+        <v>82.77335332593483</v>
       </c>
       <c r="T28" t="n">
-        <v>102.0478520080632</v>
+        <v>102.0478520080635</v>
       </c>
       <c r="U28" t="n">
-        <v>155.5190254713764</v>
+        <v>155.5190254713766</v>
       </c>
       <c r="V28" t="n">
-        <v>129.3286397527469</v>
+        <v>129.3286397527471</v>
       </c>
       <c r="W28" t="n">
-        <v>154.4955258233602</v>
+        <v>154.4955258233604</v>
       </c>
       <c r="X28" t="n">
-        <v>100.1406278191633</v>
+        <v>100.1406278191635</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.01549557523097</v>
+        <v>91.0154955752312</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>266.738187723954</v>
+        <v>266.7381877239536</v>
       </c>
       <c r="C29" t="n">
-        <v>254.7495046816357</v>
+        <v>254.7495046816353</v>
       </c>
       <c r="D29" t="n">
-        <v>245.7308087261636</v>
+        <v>245.7308087261633</v>
       </c>
       <c r="E29" t="n">
-        <v>267.4729462960692</v>
+        <v>267.4729462960688</v>
       </c>
       <c r="F29" t="n">
-        <v>286.6447623840463</v>
+        <v>286.644762384046</v>
       </c>
       <c r="G29" t="n">
-        <v>288.5780302814688</v>
+        <v>269.0538708155963</v>
       </c>
       <c r="H29" t="n">
-        <v>206.1281452597788</v>
+        <v>206.1281452597784</v>
       </c>
       <c r="I29" t="n">
-        <v>47.72411040440693</v>
+        <v>47.72411040440659</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>61.99176921706456</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>98.75044040741392</v>
+        <v>98.75044040741358</v>
       </c>
       <c r="U29" t="n">
-        <v>128.9715665242609</v>
+        <v>128.9715665242605</v>
       </c>
       <c r="V29" t="n">
-        <v>128.7286362811878</v>
+        <v>210.2445649641327</v>
       </c>
       <c r="W29" t="n">
-        <v>235.54466444209</v>
+        <v>235.5446644420896</v>
       </c>
       <c r="X29" t="n">
-        <v>254.8449226748366</v>
+        <v>254.8449226748362</v>
       </c>
       <c r="Y29" t="n">
-        <v>266.2415204710353</v>
+        <v>266.241520471035</v>
       </c>
     </row>
     <row r="30">
@@ -2874,13 +2874,13 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D30" t="n">
-        <v>137.45025063969</v>
+        <v>122.8847593541866</v>
       </c>
       <c r="E30" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F30" t="n">
-        <v>118.781368784121</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
         <v>127.4412149769483</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>58.354898598651</v>
+        <v>58.35489859865066</v>
       </c>
       <c r="C31" t="n">
-        <v>44.55489344405149</v>
+        <v>44.55489344405115</v>
       </c>
       <c r="D31" t="n">
-        <v>28.17625784162988</v>
+        <v>28.17625784162954</v>
       </c>
       <c r="E31" t="n">
-        <v>27.12400769740933</v>
+        <v>27.12400769740898</v>
       </c>
       <c r="F31" t="n">
-        <v>27.59093202559563</v>
+        <v>27.59093202559529</v>
       </c>
       <c r="G31" t="n">
-        <v>43.86563474694347</v>
+        <v>43.86563474694313</v>
       </c>
       <c r="H31" t="n">
-        <v>34.41400236963389</v>
+        <v>34.41400236963355</v>
       </c>
       <c r="I31" t="n">
-        <v>19.39609755446324</v>
+        <v>19.3960975544629</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.66164717288055</v>
+        <v>24.66164717288021</v>
       </c>
       <c r="S31" t="n">
-        <v>88.20774857146429</v>
+        <v>88.20774857146395</v>
       </c>
       <c r="T31" t="n">
-        <v>107.4822472535929</v>
+        <v>107.4822472535926</v>
       </c>
       <c r="U31" t="n">
-        <v>160.9534207169061</v>
+        <v>160.9534207169058</v>
       </c>
       <c r="V31" t="n">
-        <v>134.7630349982766</v>
+        <v>134.7630349982763</v>
       </c>
       <c r="W31" t="n">
-        <v>159.9299210688899</v>
+        <v>159.9299210688895</v>
       </c>
       <c r="X31" t="n">
-        <v>105.575023064693</v>
+        <v>105.5750230646926</v>
       </c>
       <c r="Y31" t="n">
-        <v>96.44989082076066</v>
+        <v>96.44989082076032</v>
       </c>
     </row>
     <row r="32">
@@ -3026,19 +3026,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>253.327175636089</v>
+        <v>253.3271756360891</v>
       </c>
       <c r="C32" t="n">
         <v>241.3384925937708</v>
       </c>
       <c r="D32" t="n">
-        <v>232.3197966382987</v>
+        <v>232.3197966382988</v>
       </c>
       <c r="E32" t="n">
         <v>254.0619342082043</v>
       </c>
       <c r="F32" t="n">
-        <v>273.2337502961814</v>
+        <v>273.2337502961815</v>
       </c>
       <c r="G32" t="n">
         <v>275.167018193604</v>
@@ -3047,7 +3047,7 @@
         <v>192.7171331719139</v>
       </c>
       <c r="I32" t="n">
-        <v>34.31309831654201</v>
+        <v>34.31309831654207</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>48.58075712919964</v>
+        <v>48.5807571291997</v>
       </c>
       <c r="T32" t="n">
-        <v>85.339428319549</v>
+        <v>85.33942831954906</v>
       </c>
       <c r="U32" t="n">
         <v>115.560554436396</v>
       </c>
       <c r="V32" t="n">
-        <v>196.8335528762681</v>
+        <v>196.8335528762682</v>
       </c>
       <c r="W32" t="n">
-        <v>222.133652354225</v>
+        <v>222.1336523542251</v>
       </c>
       <c r="X32" t="n">
-        <v>241.4339105869716</v>
+        <v>241.4339105869717</v>
       </c>
       <c r="Y32" t="n">
-        <v>252.8305083831704</v>
+        <v>252.8305083831705</v>
       </c>
     </row>
     <row r="33">
@@ -3114,7 +3114,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E33" t="n">
-        <v>145.5577298436975</v>
+        <v>130.9922385581941</v>
       </c>
       <c r="F33" t="n">
         <v>133.3468600696244</v>
@@ -3165,7 +3165,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V33" t="n">
-        <v>211.546175040646</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W33" t="n">
         <v>238.9027100790231</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>44.94388651078609</v>
+        <v>44.94388651078614</v>
       </c>
       <c r="C34" t="n">
-        <v>31.14388135618657</v>
+        <v>31.14388135618663</v>
       </c>
       <c r="D34" t="n">
-        <v>14.76524575376496</v>
+        <v>14.76524575376502</v>
       </c>
       <c r="E34" t="n">
-        <v>13.71299560954441</v>
+        <v>13.71299560954446</v>
       </c>
       <c r="F34" t="n">
-        <v>14.17991993773072</v>
+        <v>14.17991993773077</v>
       </c>
       <c r="G34" t="n">
-        <v>30.45462265907855</v>
+        <v>30.45462265907861</v>
       </c>
       <c r="H34" t="n">
-        <v>21.00299028176897</v>
+        <v>21.00299028176903</v>
       </c>
       <c r="I34" t="n">
-        <v>5.985085466598321</v>
+        <v>5.985085466598377</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>11.25063508501563</v>
+        <v>11.25063508501569</v>
       </c>
       <c r="S34" t="n">
-        <v>74.79673648359937</v>
+        <v>74.79673648359943</v>
       </c>
       <c r="T34" t="n">
-        <v>94.07123516572801</v>
+        <v>94.07123516572807</v>
       </c>
       <c r="U34" t="n">
         <v>147.5424086290412</v>
@@ -3247,13 +3247,13 @@
         <v>121.3520229104117</v>
       </c>
       <c r="W34" t="n">
-        <v>146.5189089810249</v>
+        <v>146.518908981025</v>
       </c>
       <c r="X34" t="n">
-        <v>92.16401097682805</v>
+        <v>92.16401097682811</v>
       </c>
       <c r="Y34" t="n">
-        <v>83.03887873289574</v>
+        <v>83.0388787328958</v>
       </c>
     </row>
     <row r="35">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3399,7 +3399,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U36" t="n">
-        <v>216.3098444776729</v>
+        <v>201.7443531921696</v>
       </c>
       <c r="V36" t="n">
         <v>226.1116663261494</v>
@@ -3633,13 +3633,13 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T39" t="n">
-        <v>172.2327615101711</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U39" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V39" t="n">
-        <v>226.1116663261494</v>
+        <v>211.5461750406456</v>
       </c>
       <c r="W39" t="n">
         <v>238.9027100790231</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>223.9740389803821</v>
+        <v>223.974038980382</v>
       </c>
       <c r="C41" t="n">
-        <v>211.9853559380638</v>
+        <v>211.9853559380637</v>
       </c>
       <c r="D41" t="n">
-        <v>202.9666599825918</v>
+        <v>202.9666599825917</v>
       </c>
       <c r="E41" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F41" t="n">
-        <v>243.8806136404745</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G41" t="n">
-        <v>245.813881537897</v>
+        <v>245.8138815378969</v>
       </c>
       <c r="H41" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I41" t="n">
-        <v>4.959961660835063</v>
+        <v>4.959961660835006</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>19.22762047349269</v>
+        <v>19.22762047349264</v>
       </c>
       <c r="T41" t="n">
-        <v>55.98629166384205</v>
+        <v>55.986291663842</v>
       </c>
       <c r="U41" t="n">
-        <v>86.20741778068901</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V41" t="n">
-        <v>167.4804162205612</v>
+        <v>167.4804162205611</v>
       </c>
       <c r="W41" t="n">
-        <v>192.7805156985181</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X41" t="n">
-        <v>212.0807739312647</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y41" t="n">
-        <v>223.4773717274635</v>
+        <v>223.4773717274634</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133634</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T42" t="n">
-        <v>172.2327615101711</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U42" t="n">
         <v>216.3098444776729</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.59074985507914</v>
+        <v>15.59074985507908</v>
       </c>
       <c r="C43" t="n">
-        <v>1.790744700479621</v>
+        <v>1.790744700479564</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.101486003371605</v>
+        <v>1.101486003371548</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>45.44359982789243</v>
+        <v>45.44359982789237</v>
       </c>
       <c r="T43" t="n">
-        <v>64.71809851002106</v>
+        <v>64.71809851002101</v>
       </c>
       <c r="U43" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V43" t="n">
-        <v>91.99888625470473</v>
+        <v>91.99888625470467</v>
       </c>
       <c r="W43" t="n">
-        <v>117.165772325318</v>
+        <v>117.1657723253179</v>
       </c>
       <c r="X43" t="n">
-        <v>62.8108743211211</v>
+        <v>62.81087432112105</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.68574207718879</v>
+        <v>53.68574207718873</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>223.9740389803821</v>
+        <v>223.974038980382</v>
       </c>
       <c r="C44" t="n">
-        <v>211.9853559380638</v>
+        <v>211.9853559380637</v>
       </c>
       <c r="D44" t="n">
-        <v>202.9666599825918</v>
+        <v>202.9666599825917</v>
       </c>
       <c r="E44" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F44" t="n">
-        <v>243.8806136404745</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G44" t="n">
-        <v>245.813881537897</v>
+        <v>245.8138815378969</v>
       </c>
       <c r="H44" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I44" t="n">
-        <v>4.959961660835063</v>
+        <v>4.959961660835006</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.22762047349269</v>
+        <v>19.22762047349264</v>
       </c>
       <c r="T44" t="n">
-        <v>55.98629166384205</v>
+        <v>55.986291663842</v>
       </c>
       <c r="U44" t="n">
-        <v>86.20741778068901</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V44" t="n">
-        <v>167.4804162205612</v>
+        <v>167.4804162205611</v>
       </c>
       <c r="W44" t="n">
-        <v>192.7805156985181</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X44" t="n">
-        <v>212.0807739312647</v>
+        <v>212.080773931265</v>
       </c>
       <c r="Y44" t="n">
-        <v>223.4773717274635</v>
+        <v>223.4773717274634</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -4110,7 +4110,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U45" t="n">
-        <v>216.3098444776729</v>
+        <v>201.7443531921696</v>
       </c>
       <c r="V45" t="n">
         <v>226.1116663261494</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.59074985507914</v>
+        <v>15.59074985507908</v>
       </c>
       <c r="C46" t="n">
-        <v>1.790744700479621</v>
+        <v>1.790744700479564</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.101486003371605</v>
+        <v>1.101486003371548</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>45.44359982789243</v>
+        <v>45.44359982789237</v>
       </c>
       <c r="T46" t="n">
-        <v>64.71809851002106</v>
+        <v>64.71809851002101</v>
       </c>
       <c r="U46" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V46" t="n">
-        <v>91.99888625470473</v>
+        <v>91.99888625470467</v>
       </c>
       <c r="W46" t="n">
-        <v>117.165772325318</v>
+        <v>117.1657723253179</v>
       </c>
       <c r="X46" t="n">
-        <v>62.8108743211211</v>
+        <v>62.81087432112105</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.68574207718879</v>
+        <v>53.68574207718873</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1353.344774811719</v>
+        <v>1566.300566131045</v>
       </c>
       <c r="C2" t="n">
-        <v>971.411016144526</v>
+        <v>1566.300566131045</v>
       </c>
       <c r="D2" t="n">
-        <v>971.411016144526</v>
+        <v>1566.300566131045</v>
       </c>
       <c r="E2" t="n">
-        <v>971.411016144526</v>
+        <v>1171.514846237152</v>
       </c>
       <c r="F2" t="n">
-        <v>557.2598254546963</v>
+        <v>757.363655547322</v>
       </c>
       <c r="G2" t="n">
-        <v>545.1962429492884</v>
+        <v>341.25966900151</v>
       </c>
       <c r="H2" t="n">
         <v>212.3749685465976</v>
       </c>
       <c r="I2" t="n">
-        <v>39.55776975539365</v>
+        <v>39.55776975539359</v>
       </c>
       <c r="J2" t="n">
-        <v>39.55776975539365</v>
+        <v>111.5563140281993</v>
       </c>
       <c r="K2" t="n">
-        <v>230.8388551285083</v>
+        <v>351.696686072982</v>
       </c>
       <c r="L2" t="n">
-        <v>578.7242282134546</v>
+        <v>699.5820591579283</v>
       </c>
       <c r="M2" t="n">
-        <v>971.9633944665425</v>
+        <v>1092.821225411016</v>
       </c>
       <c r="N2" t="n">
-        <v>1350.294753154258</v>
+        <v>1471.152584098732</v>
       </c>
       <c r="O2" t="n">
-        <v>1655.299337627092</v>
+        <v>1655.299337627089</v>
       </c>
       <c r="P2" t="n">
-        <v>1883.456234083145</v>
+        <v>1883.456234083143</v>
       </c>
       <c r="Q2" t="n">
-        <v>1977.888487769682</v>
+        <v>1977.88848776968</v>
       </c>
       <c r="R2" t="n">
-        <v>1977.888487769682</v>
+        <v>1977.88848776968</v>
       </c>
       <c r="S2" t="n">
-        <v>1977.888487769682</v>
+        <v>1790.659512400034</v>
       </c>
       <c r="T2" t="n">
-        <v>1753.529541500694</v>
+        <v>1566.300566131045</v>
       </c>
       <c r="U2" t="n">
-        <v>1498.644205214688</v>
+        <v>1566.300566131045</v>
       </c>
       <c r="V2" t="n">
-        <v>1498.644205214688</v>
+        <v>1566.300566131045</v>
       </c>
       <c r="W2" t="n">
-        <v>1498.644205214688</v>
+        <v>1566.300566131045</v>
       </c>
       <c r="X2" t="n">
-        <v>1353.344774811719</v>
+        <v>1566.300566131045</v>
       </c>
       <c r="Y2" t="n">
-        <v>1353.344774811719</v>
+        <v>1566.300566131045</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>768.5565596701249</v>
+        <v>633.003883304521</v>
       </c>
       <c r="C3" t="n">
-        <v>757.1668574983925</v>
+        <v>471.3002105454757</v>
       </c>
       <c r="D3" t="n">
-        <v>618.3282204886045</v>
+        <v>471.3002105454757</v>
       </c>
       <c r="E3" t="n">
         <v>471.3002105454757</v>
@@ -4401,58 +4401,58 @@
         <v>207.8779125186346</v>
       </c>
       <c r="H3" t="n">
-        <v>107.9400550653327</v>
+        <v>107.9400550653326</v>
       </c>
       <c r="I3" t="n">
-        <v>39.55776975539365</v>
+        <v>39.55776975539359</v>
       </c>
       <c r="J3" t="n">
-        <v>99.81191628849979</v>
+        <v>99.81191628849973</v>
       </c>
       <c r="K3" t="n">
-        <v>329.3024688486885</v>
+        <v>329.3024688486884</v>
       </c>
       <c r="L3" t="n">
-        <v>695.1243140188042</v>
+        <v>695.1243140188039</v>
       </c>
       <c r="M3" t="n">
-        <v>938.3895064769408</v>
+        <v>1180.15766752903</v>
       </c>
       <c r="N3" t="n">
-        <v>1427.916907199937</v>
+        <v>1180.15766752903</v>
       </c>
       <c r="O3" t="n">
-        <v>1820.116857984088</v>
+        <v>1572.357618313181</v>
       </c>
       <c r="P3" t="n">
-        <v>1820.116857984088</v>
+        <v>1820.116857984085</v>
       </c>
       <c r="Q3" t="n">
-        <v>1977.888487769682</v>
+        <v>1977.88848776968</v>
       </c>
       <c r="R3" t="n">
-        <v>1918.104218864628</v>
+        <v>1977.88848776968</v>
       </c>
       <c r="S3" t="n">
-        <v>1765.304731877368</v>
+        <v>1825.08900078242</v>
       </c>
       <c r="T3" t="n">
-        <v>1765.304731877368</v>
+        <v>1636.403896948405</v>
       </c>
       <c r="U3" t="n">
-        <v>1546.809939475678</v>
+        <v>1417.909104546715</v>
       </c>
       <c r="V3" t="n">
-        <v>1318.414316924012</v>
+        <v>1189.513481995049</v>
       </c>
       <c r="W3" t="n">
-        <v>1318.414316924012</v>
+        <v>948.197613228359</v>
       </c>
       <c r="X3" t="n">
-        <v>1120.497328801807</v>
+        <v>948.197613228359</v>
       </c>
       <c r="Y3" t="n">
-        <v>927.9760024513859</v>
+        <v>792.4233260857818</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>251.6240225799021</v>
+        <v>208.4775183875436</v>
       </c>
       <c r="C4" t="n">
-        <v>251.6240225799021</v>
+        <v>208.4775183875436</v>
       </c>
       <c r="D4" t="n">
-        <v>251.6240225799021</v>
+        <v>208.4775183875436</v>
       </c>
       <c r="E4" t="n">
-        <v>99.61500834122093</v>
+        <v>208.4775183875436</v>
       </c>
       <c r="F4" t="n">
-        <v>99.61500834122093</v>
+        <v>208.4775183875436</v>
       </c>
       <c r="G4" t="n">
-        <v>99.61500834122093</v>
+        <v>39.55776975539359</v>
       </c>
       <c r="H4" t="n">
-        <v>99.61500834122093</v>
+        <v>39.55776975539359</v>
       </c>
       <c r="I4" t="n">
-        <v>99.61500834122093</v>
+        <v>39.55776975539359</v>
       </c>
       <c r="J4" t="n">
-        <v>39.55776975539365</v>
+        <v>39.55776975539359</v>
       </c>
       <c r="K4" t="n">
-        <v>73.16195750003706</v>
+        <v>73.161957500037</v>
       </c>
       <c r="L4" t="n">
-        <v>173.7690369002966</v>
+        <v>173.7690369002965</v>
       </c>
       <c r="M4" t="n">
-        <v>291.7625430278983</v>
+        <v>291.7625430278982</v>
       </c>
       <c r="N4" t="n">
-        <v>410.1848847774987</v>
+        <v>410.1848847774986</v>
       </c>
       <c r="O4" t="n">
         <v>508.6485312731883</v>
@@ -4513,25 +4513,25 @@
         <v>533.0796736550151</v>
       </c>
       <c r="S4" t="n">
-        <v>533.0796736550151</v>
+        <v>319.3699110587027</v>
       </c>
       <c r="T4" t="n">
-        <v>533.0796736550151</v>
+        <v>319.3699110587027</v>
       </c>
       <c r="U4" t="n">
-        <v>533.0796736550151</v>
+        <v>319.3699110587027</v>
       </c>
       <c r="V4" t="n">
-        <v>435.1793912642819</v>
+        <v>208.4775183875436</v>
       </c>
       <c r="W4" t="n">
-        <v>435.1793912642819</v>
+        <v>208.4775183875436</v>
       </c>
       <c r="X4" t="n">
-        <v>435.1793912642819</v>
+        <v>208.4775183875436</v>
       </c>
       <c r="Y4" t="n">
-        <v>435.1793912642819</v>
+        <v>208.4775183875436</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1220.5302663906</v>
+        <v>1662.891254996544</v>
       </c>
       <c r="C5" t="n">
-        <v>838.5965077234077</v>
+        <v>1280.957496329351</v>
       </c>
       <c r="D5" t="n">
-        <v>465.7725429506312</v>
+        <v>908.133531556575</v>
       </c>
       <c r="E5" t="n">
-        <v>465.7725429506312</v>
+        <v>513.3478116626818</v>
       </c>
       <c r="F5" t="n">
-        <v>455.6617563012056</v>
+        <v>503.2370250132562</v>
       </c>
       <c r="G5" t="n">
-        <v>39.55776975539365</v>
+        <v>87.13303846744418</v>
       </c>
       <c r="H5" t="n">
-        <v>39.55776975539365</v>
+        <v>87.13303846744418</v>
       </c>
       <c r="I5" t="n">
-        <v>39.55776975539365</v>
+        <v>39.55776975539359</v>
       </c>
       <c r="J5" t="n">
         <v>111.5563140281993</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6966860729821</v>
+        <v>351.696686072982</v>
       </c>
       <c r="L5" t="n">
-        <v>699.5820591579284</v>
+        <v>699.5820591579283</v>
       </c>
       <c r="M5" t="n">
         <v>1092.821225411016</v>
       </c>
       <c r="N5" t="n">
-        <v>1350.294753154258</v>
+        <v>1471.152584098732</v>
       </c>
       <c r="O5" t="n">
-        <v>1655.299337627092</v>
+        <v>1776.157168571566</v>
       </c>
       <c r="P5" t="n">
-        <v>1883.456234083145</v>
+        <v>1883.456234083143</v>
       </c>
       <c r="Q5" t="n">
-        <v>1977.888487769682</v>
+        <v>1977.88848776968</v>
       </c>
       <c r="R5" t="n">
-        <v>1887.250201265536</v>
+        <v>1887.250201265533</v>
       </c>
       <c r="S5" t="n">
-        <v>1887.250201265536</v>
+        <v>1887.250201265533</v>
       </c>
       <c r="T5" t="n">
-        <v>1887.250201265536</v>
+        <v>1662.891254996544</v>
       </c>
       <c r="U5" t="n">
-        <v>1887.250201265536</v>
+        <v>1662.891254996544</v>
       </c>
       <c r="V5" t="n">
-        <v>1887.250201265536</v>
+        <v>1662.891254996544</v>
       </c>
       <c r="W5" t="n">
-        <v>1524.715271123137</v>
+        <v>1662.891254996544</v>
       </c>
       <c r="X5" t="n">
-        <v>1220.5302663906</v>
+        <v>1662.891254996544</v>
       </c>
       <c r="Y5" t="n">
-        <v>1220.5302663906</v>
+        <v>1662.891254996544</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>818.9326728041357</v>
+        <v>790.1420302807221</v>
       </c>
       <c r="C6" t="n">
-        <v>657.2290000450904</v>
+        <v>628.4383575216768</v>
       </c>
       <c r="D6" t="n">
-        <v>518.3903630353025</v>
+        <v>489.599720511889</v>
       </c>
       <c r="E6" t="n">
-        <v>371.3623530921737</v>
+        <v>342.5717105687602</v>
       </c>
       <c r="F6" t="n">
-        <v>236.6685550420481</v>
+        <v>207.8779125186346</v>
       </c>
       <c r="G6" t="n">
-        <v>107.9400550653327</v>
+        <v>207.8779125186346</v>
       </c>
       <c r="H6" t="n">
-        <v>107.9400550653327</v>
+        <v>107.9400550653326</v>
       </c>
       <c r="I6" t="n">
-        <v>39.55776975539365</v>
+        <v>39.55776975539359</v>
       </c>
       <c r="J6" t="n">
-        <v>99.81191628849979</v>
+        <v>39.55776975539359</v>
       </c>
       <c r="K6" t="n">
-        <v>151.2602336910171</v>
+        <v>269.0483223155823</v>
       </c>
       <c r="L6" t="n">
-        <v>151.2602336910171</v>
+        <v>634.8701674856979</v>
       </c>
       <c r="M6" t="n">
-        <v>636.2935872012436</v>
+        <v>1119.903520995924</v>
       </c>
       <c r="N6" t="n">
-        <v>1125.82098792424</v>
+        <v>1609.43092171892</v>
       </c>
       <c r="O6" t="n">
-        <v>1518.020938708391</v>
+        <v>1977.88848776968</v>
       </c>
       <c r="P6" t="n">
-        <v>1820.116857984088</v>
+        <v>1977.88848776968</v>
       </c>
       <c r="Q6" t="n">
-        <v>1977.888487769682</v>
+        <v>1977.88848776968</v>
       </c>
       <c r="R6" t="n">
-        <v>1977.888487769682</v>
+        <v>1918.104218864625</v>
       </c>
       <c r="S6" t="n">
-        <v>1825.089000782423</v>
+        <v>1765.304731877366</v>
       </c>
       <c r="T6" t="n">
-        <v>1636.403896948408</v>
+        <v>1765.304731877366</v>
       </c>
       <c r="U6" t="n">
-        <v>1417.909104546718</v>
+        <v>1546.809939475676</v>
       </c>
       <c r="V6" t="n">
-        <v>1417.584972474292</v>
+        <v>1318.41431692401</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.269103707602</v>
+        <v>1077.09844815732</v>
       </c>
       <c r="X6" t="n">
-        <v>978.3521155853966</v>
+        <v>1077.09844815732</v>
       </c>
       <c r="Y6" t="n">
-        <v>978.3521155853966</v>
+        <v>949.561473061983</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.55776975539365</v>
+        <v>183.7608141527151</v>
       </c>
       <c r="C7" t="n">
-        <v>39.55776975539365</v>
+        <v>183.7608141527151</v>
       </c>
       <c r="D7" t="n">
-        <v>39.55776975539365</v>
+        <v>183.7608141527151</v>
       </c>
       <c r="E7" t="n">
-        <v>39.55776975539365</v>
+        <v>183.7608141527151</v>
       </c>
       <c r="F7" t="n">
-        <v>39.55776975539365</v>
+        <v>183.7608141527151</v>
       </c>
       <c r="G7" t="n">
-        <v>39.55776975539365</v>
+        <v>183.7608141527151</v>
       </c>
       <c r="H7" t="n">
-        <v>39.55776975539365</v>
+        <v>183.7608141527151</v>
       </c>
       <c r="I7" t="n">
-        <v>39.55776975539365</v>
+        <v>39.55776975539359</v>
       </c>
       <c r="J7" t="n">
-        <v>39.55776975539365</v>
+        <v>39.55776975539359</v>
       </c>
       <c r="K7" t="n">
-        <v>73.16195750003706</v>
+        <v>73.161957500037</v>
       </c>
       <c r="L7" t="n">
-        <v>173.7690369002966</v>
+        <v>173.7690369002965</v>
       </c>
       <c r="M7" t="n">
-        <v>291.7625430278983</v>
+        <v>291.7625430278982</v>
       </c>
       <c r="N7" t="n">
-        <v>410.1848847774987</v>
+        <v>410.1848847774986</v>
       </c>
       <c r="O7" t="n">
         <v>508.6485312731883</v>
@@ -4744,31 +4744,31 @@
         <v>571.6170150013261</v>
       </c>
       <c r="Q7" t="n">
-        <v>533.0796736550151</v>
+        <v>571.6170150013261</v>
       </c>
       <c r="R7" t="n">
-        <v>383.5578922693933</v>
+        <v>571.6170150013261</v>
       </c>
       <c r="S7" t="n">
-        <v>169.8481296730808</v>
+        <v>571.6170150013261</v>
       </c>
       <c r="T7" t="n">
-        <v>169.8481296730808</v>
+        <v>469.917215635316</v>
       </c>
       <c r="U7" t="n">
-        <v>39.55776975539365</v>
+        <v>469.917215635316</v>
       </c>
       <c r="V7" t="n">
-        <v>39.55776975539365</v>
+        <v>469.917215635316</v>
       </c>
       <c r="W7" t="n">
-        <v>39.55776975539365</v>
+        <v>183.7608141527151</v>
       </c>
       <c r="X7" t="n">
-        <v>39.55776975539365</v>
+        <v>183.7608141527151</v>
       </c>
       <c r="Y7" t="n">
-        <v>39.55776975539365</v>
+        <v>183.7608141527151</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1599.886427633425</v>
+        <v>1222.996752736406</v>
       </c>
       <c r="C8" t="n">
-        <v>1599.886427633425</v>
+        <v>841.0629940692133</v>
       </c>
       <c r="D8" t="n">
-        <v>1599.886427633425</v>
+        <v>468.2390292964369</v>
       </c>
       <c r="E8" t="n">
-        <v>1205.100707739532</v>
+        <v>468.2390292964369</v>
       </c>
       <c r="F8" t="n">
-        <v>790.949517049702</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G8" t="n">
-        <v>374.84553050389</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U8" t="n">
-        <v>2010.574518555815</v>
+        <v>1999.070432732932</v>
       </c>
       <c r="V8" t="n">
-        <v>2010.574518555815</v>
+        <v>1999.070432732932</v>
       </c>
       <c r="W8" t="n">
-        <v>1981.916568111931</v>
+        <v>1999.070432732932</v>
       </c>
       <c r="X8" t="n">
-        <v>1599.886427633425</v>
+        <v>1617.040292254425</v>
       </c>
       <c r="Y8" t="n">
-        <v>1599.886427633425</v>
+        <v>1617.040292254425</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>567.0880843403876</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C9" t="n">
-        <v>405.3844115813423</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D9" t="n">
-        <v>405.3844115813423</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E9" t="n">
-        <v>405.3844115813423</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F9" t="n">
-        <v>270.6906135312166</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G9" t="n">
-        <v>141.9621135545012</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H9" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
@@ -4890,7 +4890,7 @@
         <v>637.3366538315036</v>
       </c>
       <c r="M9" t="n">
-        <v>1122.37000734173</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N9" t="n">
         <v>1406.916935000113</v>
@@ -4908,25 +4908,25 @@
         <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>1993.837229148336</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>1805.152125314321</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U9" t="n">
-        <v>1586.657332912631</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="V9" t="n">
-        <v>1358.261710360965</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="W9" t="n">
-        <v>1116.945841594275</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X9" t="n">
-        <v>919.0288534720697</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y9" t="n">
-        <v>726.5075271216485</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102.0814946870265</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="C10" t="n">
-        <v>102.0814946870265</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="D10" t="n">
-        <v>102.0814946870265</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="E10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J10" t="n">
         <v>42.02425610119923</v>
@@ -4981,31 +4981,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S10" t="n">
-        <v>535.5461600008207</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="T10" t="n">
-        <v>388.2378961696274</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="U10" t="n">
-        <v>388.2378961696274</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="V10" t="n">
-        <v>388.2378961696274</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="W10" t="n">
-        <v>102.0814946870265</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="X10" t="n">
-        <v>102.0814946870265</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="Y10" t="n">
-        <v>102.0814946870265</v>
+        <v>194.0332703398804</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1207.058548948462</v>
+        <v>1571.231708597552</v>
       </c>
       <c r="C11" t="n">
-        <v>917.0583075480768</v>
+        <v>1281.231467197167</v>
       </c>
       <c r="D11" t="n">
-        <v>917.0583075480768</v>
+        <v>1000.341019691198</v>
       </c>
       <c r="E11" t="n">
-        <v>614.2061049209912</v>
+        <v>697.4888170641125</v>
       </c>
       <c r="F11" t="n">
-        <v>291.988431497969</v>
+        <v>375.2711436410904</v>
       </c>
       <c r="G11" t="n">
-        <v>291.988431497969</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="H11" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="I11" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J11" t="n">
         <v>213.2032589080894</v>
       </c>
       <c r="K11" t="n">
-        <v>543.44767122607</v>
+        <v>453.3436309528721</v>
       </c>
       <c r="L11" t="n">
-        <v>981.4370845842143</v>
+        <v>801.2290040378184</v>
       </c>
       <c r="M11" t="n">
-        <v>1374.676250837302</v>
+        <v>1284.572210564104</v>
       </c>
       <c r="N11" t="n">
-        <v>1843.111649798216</v>
+        <v>1745.962447271984</v>
       </c>
       <c r="O11" t="n">
-        <v>2148.11623427105</v>
+        <v>2141.071072018016</v>
       </c>
       <c r="P11" t="n">
-        <v>2376.273130727103</v>
+        <v>2459.332008747267</v>
       </c>
       <c r="Q11" t="n">
-        <v>2555.033718104286</v>
+        <v>2553.764262433804</v>
       </c>
       <c r="R11" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104288</v>
       </c>
       <c r="S11" t="n">
-        <v>2534.426764463517</v>
+        <v>2465.046692217818</v>
       </c>
       <c r="T11" t="n">
-        <v>2534.426764463517</v>
+        <v>2465.046692217818</v>
       </c>
       <c r="U11" t="n">
-        <v>2371.474945444319</v>
+        <v>2465.046692217818</v>
       </c>
       <c r="V11" t="n">
-        <v>2371.474945444319</v>
+        <v>2465.046692217818</v>
       </c>
       <c r="W11" t="n">
-        <v>2100.873532568728</v>
+        <v>2465.046692217818</v>
       </c>
       <c r="X11" t="n">
-        <v>1810.776909357028</v>
+        <v>2174.950069006119</v>
       </c>
       <c r="Y11" t="n">
-        <v>1509.168571199674</v>
+        <v>1873.341730848764</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040259</v>
       </c>
       <c r="C12" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449806</v>
       </c>
       <c r="D12" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351927</v>
       </c>
       <c r="E12" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920639</v>
       </c>
       <c r="F12" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419383</v>
       </c>
       <c r="G12" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652228</v>
       </c>
       <c r="H12" t="n">
-        <v>119.4829596720247</v>
+        <v>119.4829596720248</v>
       </c>
       <c r="I12" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J12" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K12" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L12" t="n">
         <v>706.6672186254962</v>
@@ -5139,31 +5139,31 @@
         <v>2397.262088318693</v>
       </c>
       <c r="Q12" t="n">
-        <v>2555.033718104287</v>
+        <v>2555.033718104288</v>
       </c>
       <c r="R12" t="n">
         <v>2495.249449199233</v>
       </c>
       <c r="S12" t="n">
-        <v>2342.449962211973</v>
+        <v>2342.449962211974</v>
       </c>
       <c r="T12" t="n">
         <v>2153.764858377959</v>
       </c>
       <c r="U12" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V12" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W12" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X12" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535708</v>
       </c>
       <c r="Y12" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185287</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>393.8311206321484</v>
+        <v>349.6257991271673</v>
       </c>
       <c r="C13" t="n">
-        <v>316.1486683606361</v>
+        <v>271.943346855655</v>
       </c>
       <c r="D13" t="n">
-        <v>316.1486683606361</v>
+        <v>240.4319298298161</v>
       </c>
       <c r="E13" t="n">
-        <v>256.0731713887624</v>
+        <v>180.3564328579423</v>
       </c>
       <c r="F13" t="n">
-        <v>195.5260336813469</v>
+        <v>180.3564328579423</v>
       </c>
       <c r="G13" t="n">
-        <v>118.5398023160044</v>
+        <v>103.3702014925998</v>
       </c>
       <c r="H13" t="n">
-        <v>51.10067436208573</v>
+        <v>103.3702014925998</v>
       </c>
       <c r="I13" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J13" t="n">
         <v>82.34261509731442</v>
@@ -5218,7 +5218,7 @@
         <v>1155.026101982435</v>
       </c>
       <c r="Q13" t="n">
-        <v>1207.359694002114</v>
+        <v>1207.359694002113</v>
       </c>
       <c r="R13" t="n">
         <v>1149.771429883299</v>
@@ -5227,22 +5227,22 @@
         <v>1149.771429883299</v>
       </c>
       <c r="T13" t="n">
-        <v>1008.525993965786</v>
+        <v>1008.525993965785</v>
       </c>
       <c r="U13" t="n">
-        <v>813.269271721693</v>
+        <v>813.2692717216927</v>
       </c>
       <c r="V13" t="n">
-        <v>644.4674845469231</v>
+        <v>813.2692717216927</v>
       </c>
       <c r="W13" t="n">
-        <v>450.2446003311292</v>
+        <v>619.0463875058994</v>
       </c>
       <c r="X13" t="n">
-        <v>450.2446003311292</v>
+        <v>479.7274406680826</v>
       </c>
       <c r="Y13" t="n">
-        <v>450.2446003311292</v>
+        <v>349.6257991271673</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1438.338793471079</v>
+        <v>1343.778501981994</v>
       </c>
       <c r="C14" t="n">
-        <v>1438.338793471079</v>
+        <v>1059.267548708406</v>
       </c>
       <c r="D14" t="n">
-        <v>1294.66601771749</v>
+        <v>1059.267548708406</v>
       </c>
       <c r="E14" t="n">
-        <v>997.3031032172016</v>
+        <v>761.9046342081174</v>
       </c>
       <c r="F14" t="n">
-        <v>680.574717920977</v>
+        <v>445.1762489118923</v>
       </c>
       <c r="G14" t="n">
-        <v>361.8935367687702</v>
+        <v>126.4950677596851</v>
       </c>
       <c r="H14" t="n">
-        <v>126.4950677596846</v>
+        <v>126.4950677596851</v>
       </c>
       <c r="I14" t="n">
         <v>51.10067436208575</v>
       </c>
       <c r="J14" t="n">
-        <v>185.9073471532411</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K14" t="n">
-        <v>521.5318107642962</v>
+        <v>458.7236822459461</v>
       </c>
       <c r="L14" t="n">
-        <v>964.9012754155149</v>
+        <v>806.6090553308923</v>
       </c>
       <c r="M14" t="n">
-        <v>1358.140441668603</v>
+        <v>1295.332313150252</v>
       </c>
       <c r="N14" t="n">
-        <v>1831.955891922591</v>
+        <v>1736.47180035632</v>
       </c>
       <c r="O14" t="n">
-        <v>2136.960476395425</v>
+        <v>2136.960476395426</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.117372851478</v>
+        <v>2460.601464417751</v>
       </c>
       <c r="Q14" t="n">
         <v>2555.033718104288</v>
@@ -5303,25 +5303,25 @@
         <v>2555.033718104288</v>
       </c>
       <c r="S14" t="n">
-        <v>2555.033718104288</v>
+        <v>2465.227548128246</v>
       </c>
       <c r="T14" t="n">
-        <v>2428.097577228904</v>
+        <v>2338.291407252862</v>
       </c>
       <c r="U14" t="n">
-        <v>2270.635046336503</v>
+        <v>2180.828876360461</v>
       </c>
       <c r="V14" t="n">
-        <v>2031.07857762605</v>
+        <v>2180.828876360461</v>
       </c>
       <c r="W14" t="n">
-        <v>2031.07857762605</v>
+        <v>1915.716751611667</v>
       </c>
       <c r="X14" t="n">
-        <v>2031.07857762605</v>
+        <v>1640.399236106408</v>
       </c>
       <c r="Y14" t="n">
-        <v>1734.959527595493</v>
+        <v>1640.399236106408</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>915.7008174040259</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C15" t="n">
-        <v>753.9971446449806</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D15" t="n">
-        <v>615.1585076351927</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E15" t="n">
-        <v>468.1304976920639</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F15" t="n">
-        <v>333.4366996419383</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G15" t="n">
-        <v>204.7081996652228</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H15" t="n">
-        <v>104.7703422119209</v>
+        <v>119.4829596720248</v>
       </c>
       <c r="I15" t="n">
         <v>51.10067436208575</v>
@@ -5358,49 +5358,49 @@
         <v>111.3548208951919</v>
       </c>
       <c r="K15" t="n">
-        <v>340.8453734553815</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L15" t="n">
-        <v>706.6672186254972</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M15" t="n">
-        <v>1191.700572135724</v>
+        <v>1191.700572135723</v>
       </c>
       <c r="N15" t="n">
-        <v>1702.966218258846</v>
+        <v>1702.966218258845</v>
       </c>
       <c r="O15" t="n">
         <v>2095.166169042996</v>
       </c>
       <c r="P15" t="n">
-        <v>2397.262088318694</v>
+        <v>2397.262088318693</v>
       </c>
       <c r="Q15" t="n">
         <v>2555.033718104288</v>
       </c>
       <c r="R15" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S15" t="n">
-        <v>2342.449962211974</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T15" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U15" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V15" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W15" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X15" t="n">
-        <v>1267.641586535708</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y15" t="n">
-        <v>1075.120260185287</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>445.7426823955369</v>
+        <v>224.6602863555943</v>
       </c>
       <c r="C16" t="n">
-        <v>373.5495182508222</v>
+        <v>152.4671222108792</v>
       </c>
       <c r="D16" t="n">
-        <v>317.9004304721901</v>
+        <v>152.4671222108792</v>
       </c>
       <c r="E16" t="n">
-        <v>263.3142216271141</v>
+        <v>97.88091336580266</v>
       </c>
       <c r="F16" t="n">
-        <v>208.2563720464964</v>
+        <v>97.88091336580266</v>
       </c>
       <c r="G16" t="n">
-        <v>136.7594288079516</v>
+        <v>97.88091336580266</v>
       </c>
       <c r="H16" t="n">
-        <v>74.80958898083051</v>
+        <v>97.88091336580266</v>
       </c>
       <c r="I16" t="n">
         <v>51.10067436208575</v>
       </c>
       <c r="J16" t="n">
-        <v>87.72266639038889</v>
+        <v>87.72266639038833</v>
       </c>
       <c r="K16" t="n">
-        <v>216.8109457013047</v>
+        <v>216.8109457013036</v>
       </c>
       <c r="L16" t="n">
-        <v>412.9021166678366</v>
+        <v>412.902116667835</v>
       </c>
       <c r="M16" t="n">
-        <v>626.3797143617107</v>
+        <v>626.3797143617087</v>
       </c>
       <c r="N16" t="n">
-        <v>840.2861476775835</v>
+        <v>840.2861476775809</v>
       </c>
       <c r="O16" t="n">
-        <v>1034.233885739545</v>
+        <v>1034.233885739543</v>
       </c>
       <c r="P16" t="n">
-        <v>1192.686461033956</v>
+        <v>1192.686461033952</v>
       </c>
       <c r="Q16" t="n">
-        <v>1250.400104346709</v>
+        <v>1250.400104346705</v>
       </c>
       <c r="R16" t="n">
-        <v>1198.301128354692</v>
+        <v>1198.301128354687</v>
       </c>
       <c r="S16" t="n">
-        <v>1198.301128354692</v>
+        <v>1198.301128354687</v>
       </c>
       <c r="T16" t="n">
-        <v>1198.301128354692</v>
+        <v>1062.544980563971</v>
       </c>
       <c r="U16" t="n">
-        <v>1008.533694237397</v>
+        <v>872.7775464466753</v>
       </c>
       <c r="V16" t="n">
-        <v>845.2211951894251</v>
+        <v>709.4650473987026</v>
       </c>
       <c r="W16" t="n">
-        <v>656.4875991004294</v>
+        <v>520.7314513097064</v>
       </c>
       <c r="X16" t="n">
-        <v>656.4875991004294</v>
+        <v>386.9017925986868</v>
       </c>
       <c r="Y16" t="n">
-        <v>531.8752456863116</v>
+        <v>262.2894391845687</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1361.887812572759</v>
+        <v>1361.887812572758</v>
       </c>
       <c r="C17" t="n">
-        <v>1147.761190413099</v>
+        <v>1147.761190413098</v>
       </c>
       <c r="D17" t="n">
-        <v>942.7443621478542</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E17" t="n">
-        <v>715.7657787614933</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F17" t="n">
-        <v>469.4217245791958</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G17" t="n">
-        <v>221.124874540916</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H17" t="n">
-        <v>56.11073664575753</v>
+        <v>56.11073664575748</v>
       </c>
       <c r="I17" t="n">
         <v>51.10067436208575</v>
       </c>
       <c r="J17" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K17" t="n">
-        <v>363.2395906796742</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L17" t="n">
-        <v>711.1249637646204</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M17" t="n">
         <v>1268.831904508741</v>
@@ -5534,7 +5534,7 @@
         <v>2344.792518616376</v>
       </c>
       <c r="Q17" t="n">
-        <v>2479.40052821597</v>
+        <v>2555.033718104288</v>
       </c>
       <c r="R17" t="n">
         <v>2555.033718104288</v>
@@ -5543,22 +5543,22 @@
         <v>2535.611879242174</v>
       </c>
       <c r="T17" t="n">
-        <v>2479.060069480718</v>
+        <v>2479.060069480716</v>
       </c>
       <c r="U17" t="n">
-        <v>2391.981869702244</v>
+        <v>2391.981869702242</v>
       </c>
       <c r="V17" t="n">
-        <v>2222.809732105717</v>
+        <v>2222.809732105716</v>
       </c>
       <c r="W17" t="n">
-        <v>2028.08193847085</v>
+        <v>2028.081938470849</v>
       </c>
       <c r="X17" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y17" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040259</v>
       </c>
       <c r="C18" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449806</v>
       </c>
       <c r="D18" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351927</v>
       </c>
       <c r="E18" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920639</v>
       </c>
       <c r="F18" t="n">
         <v>348.1493171020421</v>
@@ -5592,19 +5592,19 @@
         <v>51.10067436208575</v>
       </c>
       <c r="J18" t="n">
-        <v>111.3548208951929</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K18" t="n">
-        <v>340.8453734553815</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L18" t="n">
-        <v>706.6672186254972</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M18" t="n">
-        <v>1191.700572135724</v>
+        <v>1191.700572135723</v>
       </c>
       <c r="N18" t="n">
-        <v>1702.966218258846</v>
+        <v>1702.966218258845</v>
       </c>
       <c r="O18" t="n">
         <v>2095.166169042996</v>
@@ -5631,13 +5631,13 @@
         <v>1706.874443424603</v>
       </c>
       <c r="W18" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X18" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535708</v>
       </c>
       <c r="Y18" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185287</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.02211951749103</v>
+        <v>54.02211951749092</v>
       </c>
       <c r="C19" t="n">
-        <v>52.21328648670354</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="D19" t="n">
-        <v>52.21328648670354</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="E19" t="n">
-        <v>52.21328648670354</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="F19" t="n">
-        <v>52.21328648670354</v>
+        <v>52.21328648670348</v>
       </c>
       <c r="G19" t="n">
         <v>51.10067436208575</v>
@@ -5686,37 +5686,37 @@
         <v>421.7277893841908</v>
       </c>
       <c r="O19" t="n">
-        <v>566.4101965415346</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P19" t="n">
-        <v>629.3786802696724</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q19" t="n">
-        <v>629.3786802696724</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R19" t="n">
-        <v>629.3786802696724</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S19" t="n">
-        <v>583.4760541808921</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T19" t="n">
-        <v>518.1042375041031</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U19" t="n">
-        <v>398.7211345007353</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V19" t="n">
-        <v>305.7929665666901</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W19" t="n">
-        <v>187.4437015916214</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X19" t="n">
-        <v>123.9983739945293</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.77035169433864</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="20">
@@ -5756,22 +5756,22 @@
         <v>363.2395906796742</v>
       </c>
       <c r="L20" t="n">
-        <v>875.5927382556528</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M20" t="n">
-        <v>1384.640850310116</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N20" t="n">
-        <v>1927.439983488864</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O20" t="n">
-        <v>2232.444567961697</v>
+        <v>1952.16784766929</v>
       </c>
       <c r="P20" t="n">
-        <v>2460.601464417751</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q20" t="n">
-        <v>2555.033718104288</v>
+        <v>2479.40052821597</v>
       </c>
       <c r="R20" t="n">
         <v>2555.033718104288</v>
@@ -5829,25 +5829,25 @@
         <v>51.10067436208575</v>
       </c>
       <c r="J21" t="n">
-        <v>111.3548208951929</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K21" t="n">
-        <v>340.8453734553815</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L21" t="n">
-        <v>706.6672186254972</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M21" t="n">
-        <v>1191.700572135724</v>
+        <v>1191.700572135723</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.966218258846</v>
+        <v>1702.966218258845</v>
       </c>
       <c r="O21" t="n">
         <v>2095.166169042996</v>
       </c>
       <c r="P21" t="n">
-        <v>2397.262088318694</v>
+        <v>2397.262088318693</v>
       </c>
       <c r="Q21" t="n">
         <v>2555.033718104288</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.02211951749092</v>
+        <v>52.90950739287319</v>
       </c>
       <c r="C22" t="n">
-        <v>52.21328648670348</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="D22" t="n">
-        <v>52.21328648670348</v>
+        <v>65.54268635500839</v>
       </c>
       <c r="E22" t="n">
-        <v>52.21328648670348</v>
+        <v>65.54268635500839</v>
       </c>
       <c r="F22" t="n">
-        <v>52.21328648670348</v>
+        <v>65.54268635500839</v>
       </c>
       <c r="G22" t="n">
-        <v>51.10067436208575</v>
+        <v>64.43007423039066</v>
       </c>
       <c r="H22" t="n">
-        <v>51.10067436208575</v>
+        <v>72.69671914058931</v>
       </c>
       <c r="I22" t="n">
-        <v>51.10067436208575</v>
+        <v>72.69671914058931</v>
       </c>
       <c r="J22" t="n">
-        <v>51.10067436208575</v>
+        <v>72.69671914058931</v>
       </c>
       <c r="K22" t="n">
-        <v>130.9236227683826</v>
+        <v>106.3009068852327</v>
       </c>
       <c r="L22" t="n">
-        <v>231.5307021686421</v>
+        <v>206.9079862854922</v>
       </c>
       <c r="M22" t="n">
-        <v>349.5242082962438</v>
+        <v>324.9014924130939</v>
       </c>
       <c r="N22" t="n">
-        <v>467.9465500458442</v>
+        <v>448.912461366242</v>
       </c>
       <c r="O22" t="n">
-        <v>566.4101965415339</v>
+        <v>547.3761078619317</v>
       </c>
       <c r="P22" t="n">
-        <v>629.3786802696717</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="Q22" t="n">
-        <v>629.3786802696717</v>
+        <v>610.3445915900695</v>
       </c>
       <c r="R22" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S22" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T22" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U22" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V22" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W22" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X22" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="23">
@@ -5990,16 +5990,16 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K23" t="n">
-        <v>479.0485364810476</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L23" t="n">
-        <v>826.9339095659939</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M23" t="n">
         <v>1220.173075819082</v>
       </c>
       <c r="N23" t="n">
-        <v>1598.504434506797</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O23" t="n">
         <v>2067.976793470664</v>
@@ -6090,28 +6090,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R24" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S24" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T24" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U24" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V24" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W24" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X24" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y24" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="25">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1637.37846918581</v>
+        <v>1637.378469185812</v>
       </c>
       <c r="C26" t="n">
-        <v>1385.545025310955</v>
+        <v>1385.545025310957</v>
       </c>
       <c r="D26" t="n">
-        <v>1142.821375330517</v>
+        <v>1142.821375330519</v>
       </c>
       <c r="E26" t="n">
-        <v>878.1359702289619</v>
+        <v>878.1359702289628</v>
       </c>
       <c r="F26" t="n">
-        <v>594.0850943314703</v>
+        <v>594.0850943314709</v>
       </c>
       <c r="G26" t="n">
-        <v>308.0814225779964</v>
+        <v>308.0814225779969</v>
       </c>
       <c r="H26" t="n">
-        <v>105.3604629676437</v>
+        <v>105.360462967644</v>
       </c>
       <c r="I26" t="n">
-        <v>62.64357896877783</v>
+        <v>62.6435789687779</v>
       </c>
       <c r="J26" t="n">
-        <v>262.153441769554</v>
+        <v>262.1534417695539</v>
       </c>
       <c r="K26" t="n">
-        <v>629.8051323423074</v>
+        <v>581.384670704643</v>
       </c>
       <c r="L26" t="n">
-        <v>1105.201823955224</v>
+        <v>1056.78136231756</v>
       </c>
       <c r="M26" t="n">
-        <v>1577.531847098613</v>
+        <v>1577.531847098618</v>
       </c>
       <c r="N26" t="n">
-        <v>2083.374524314299</v>
+        <v>2083.374524314304</v>
       </c>
       <c r="O26" t="n">
-        <v>2515.890427315104</v>
+        <v>2515.890427315108</v>
       </c>
       <c r="P26" t="n">
-        <v>2871.558642299127</v>
+        <v>2871.558642299132</v>
       </c>
       <c r="Q26" t="n">
-        <v>3093.502214513635</v>
+        <v>3093.502214513639</v>
       </c>
       <c r="R26" t="n">
-        <v>3132.178948438891</v>
+        <v>3132.178948438895</v>
       </c>
       <c r="S26" t="n">
-        <v>3075.050287861584</v>
+        <v>3075.050287861587</v>
       </c>
       <c r="T26" t="n">
-        <v>2980.791656384933</v>
+        <v>2980.791656384936</v>
       </c>
       <c r="U26" t="n">
-        <v>2856.006634891265</v>
+        <v>2856.006634891268</v>
       </c>
       <c r="V26" t="n">
-        <v>2649.127675579545</v>
+        <v>2649.127675579547</v>
       </c>
       <c r="W26" t="n">
-        <v>2416.693060229484</v>
+        <v>2416.693060229486</v>
       </c>
       <c r="X26" t="n">
-        <v>2164.763234543315</v>
+        <v>2164.763234543317</v>
       </c>
       <c r="Y26" t="n">
-        <v>1901.321693911491</v>
+        <v>1901.321693911493</v>
       </c>
     </row>
     <row r="27">
@@ -6288,28 +6288,28 @@
         <v>641.4140297019887</v>
       </c>
       <c r="E27" t="n">
-        <v>494.3860197588599</v>
+        <v>494.38601975886</v>
       </c>
       <c r="F27" t="n">
-        <v>359.6922217087342</v>
+        <v>359.6922217087343</v>
       </c>
       <c r="G27" t="n">
-        <v>230.9637217320188</v>
+        <v>230.9637217320189</v>
       </c>
       <c r="H27" t="n">
-        <v>131.0258642787168</v>
+        <v>131.0258642787169</v>
       </c>
       <c r="I27" t="n">
-        <v>62.64357896877783</v>
+        <v>62.6435789687779</v>
       </c>
       <c r="J27" t="n">
-        <v>122.897725501884</v>
+        <v>122.8977255018841</v>
       </c>
       <c r="K27" t="n">
-        <v>352.3882780620726</v>
+        <v>352.3882780620727</v>
       </c>
       <c r="L27" t="n">
-        <v>718.2101232321883</v>
+        <v>718.2101232321884</v>
       </c>
       <c r="M27" t="n">
         <v>1203.243476742415</v>
@@ -6333,10 +6333,10 @@
         <v>2353.992866818665</v>
       </c>
       <c r="T27" t="n">
-        <v>2180.020380444755</v>
+        <v>2165.307762984651</v>
       </c>
       <c r="U27" t="n">
-        <v>1961.525588043065</v>
+        <v>1946.812970582961</v>
       </c>
       <c r="V27" t="n">
         <v>1733.129965491399</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>251.6143455960699</v>
+        <v>251.6143455960716</v>
       </c>
       <c r="C28" t="n">
-        <v>212.0986908500882</v>
+        <v>212.0986908500897</v>
       </c>
       <c r="D28" t="n">
-        <v>189.1271124701891</v>
+        <v>189.1271124701903</v>
       </c>
       <c r="E28" t="n">
-        <v>167.218413023846</v>
+        <v>167.218413023847</v>
       </c>
       <c r="F28" t="n">
-        <v>144.8380728419612</v>
+        <v>144.838072841962</v>
       </c>
       <c r="G28" t="n">
-        <v>106.0186390021493</v>
+        <v>106.0186390021498</v>
       </c>
       <c r="H28" t="n">
-        <v>76.74630857376121</v>
+        <v>76.74630857376152</v>
       </c>
       <c r="I28" t="n">
-        <v>62.64357896877783</v>
+        <v>62.6435789687779</v>
       </c>
       <c r="J28" t="n">
-        <v>131.2927979587791</v>
+        <v>131.2927979587789</v>
       </c>
       <c r="K28" t="n">
-        <v>164.8969857034225</v>
+        <v>292.4083042313927</v>
       </c>
       <c r="L28" t="n">
-        <v>393.0153836316525</v>
+        <v>405.4354612316703</v>
       </c>
       <c r="M28" t="n">
-        <v>511.0088897592543</v>
+        <v>523.4289673592721</v>
       </c>
       <c r="N28" t="n">
-        <v>756.9425500368252</v>
+        <v>769.3626276368427</v>
       </c>
       <c r="O28" t="n">
-        <v>867.8262741325282</v>
+        <v>995.3375926605028</v>
       </c>
       <c r="P28" t="n">
-        <v>1058.306076388636</v>
+        <v>1058.306076388641</v>
       </c>
       <c r="Q28" t="n">
-        <v>1148.046946663088</v>
+        <v>1148.046946663092</v>
       </c>
       <c r="R28" t="n">
-        <v>1128.625480069804</v>
+        <v>1128.625480069808</v>
       </c>
       <c r="S28" t="n">
-        <v>1045.01603226583</v>
+        <v>1045.016032265833</v>
       </c>
       <c r="T28" t="n">
-        <v>941.9373938738468</v>
+        <v>941.9373938738499</v>
       </c>
       <c r="U28" t="n">
-        <v>784.8474691552847</v>
+        <v>784.8474691552876</v>
       </c>
       <c r="V28" t="n">
-        <v>654.2124795060454</v>
+        <v>654.2124795060481</v>
       </c>
       <c r="W28" t="n">
-        <v>498.1563928157826</v>
+        <v>498.156392815785</v>
       </c>
       <c r="X28" t="n">
-        <v>397.0042435034965</v>
+        <v>397.0042435034986</v>
       </c>
       <c r="Y28" t="n">
-        <v>305.0693994881116</v>
+        <v>305.0693994881136</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1675.803486073393</v>
+        <v>1656.08211287554</v>
       </c>
       <c r="C29" t="n">
-        <v>1418.480754071741</v>
+        <v>1398.759380873888</v>
       </c>
       <c r="D29" t="n">
-        <v>1170.267815964505</v>
+        <v>1150.546442766652</v>
       </c>
       <c r="E29" t="n">
-        <v>900.0931227361525</v>
+        <v>880.3717495383002</v>
       </c>
       <c r="F29" t="n">
-        <v>610.5529587118633</v>
+        <v>590.8315855140113</v>
       </c>
       <c r="G29" t="n">
-        <v>319.0599988315917</v>
+        <v>319.0599988315911</v>
       </c>
       <c r="H29" t="n">
-        <v>110.8497510944414</v>
+        <v>110.8497510944411</v>
       </c>
       <c r="I29" t="n">
-        <v>62.64357896877783</v>
+        <v>62.6435789687779</v>
       </c>
       <c r="J29" t="n">
-        <v>256.7733904764796</v>
+        <v>256.7733904764805</v>
       </c>
       <c r="K29" t="n">
-        <v>619.0450297561583</v>
+        <v>619.0450297561597</v>
       </c>
       <c r="L29" t="n">
-        <v>1089.061670076001</v>
+        <v>1089.061670076003</v>
       </c>
       <c r="M29" t="n">
-        <v>1604.432103563985</v>
+        <v>1604.432103563987</v>
       </c>
       <c r="N29" t="n">
-        <v>2104.894729486597</v>
+        <v>2104.894729486599</v>
       </c>
       <c r="O29" t="n">
-        <v>2532.030581194327</v>
+        <v>2532.03058119433</v>
       </c>
       <c r="P29" t="n">
-        <v>2882.318744885276</v>
+        <v>2882.31874488528</v>
       </c>
       <c r="Q29" t="n">
-        <v>3098.882265806709</v>
+        <v>3098.882265806713</v>
       </c>
       <c r="R29" t="n">
-        <v>3132.178948438891</v>
+        <v>3132.178948438895</v>
       </c>
       <c r="S29" t="n">
-        <v>3069.560999734786</v>
+        <v>3132.178948438895</v>
       </c>
       <c r="T29" t="n">
-        <v>2969.813080131338</v>
+        <v>3032.431028835447</v>
       </c>
       <c r="U29" t="n">
-        <v>2839.538770510872</v>
+        <v>2902.156719214982</v>
       </c>
       <c r="V29" t="n">
-        <v>2709.509844974319</v>
+        <v>2689.788471776464</v>
       </c>
       <c r="W29" t="n">
-        <v>2471.58594149746</v>
+        <v>2451.864568299606</v>
       </c>
       <c r="X29" t="n">
-        <v>2214.166827684494</v>
+        <v>2194.44545448664</v>
       </c>
       <c r="Y29" t="n">
-        <v>1945.235998925872</v>
+        <v>1925.514625728019</v>
       </c>
     </row>
     <row r="30">
@@ -6522,31 +6522,31 @@
         <v>765.5400492516721</v>
       </c>
       <c r="D30" t="n">
-        <v>626.7014122418842</v>
+        <v>641.4140297019887</v>
       </c>
       <c r="E30" t="n">
-        <v>479.6734022987554</v>
+        <v>494.38601975886</v>
       </c>
       <c r="F30" t="n">
-        <v>359.6922217087342</v>
+        <v>359.6922217087343</v>
       </c>
       <c r="G30" t="n">
-        <v>230.9637217320188</v>
+        <v>230.9637217320189</v>
       </c>
       <c r="H30" t="n">
-        <v>131.0258642787168</v>
+        <v>131.0258642787169</v>
       </c>
       <c r="I30" t="n">
-        <v>62.64357896877783</v>
+        <v>62.6435789687779</v>
       </c>
       <c r="J30" t="n">
-        <v>122.897725501884</v>
+        <v>122.8977255018841</v>
       </c>
       <c r="K30" t="n">
-        <v>352.3882780620726</v>
+        <v>352.3882780620727</v>
       </c>
       <c r="L30" t="n">
-        <v>718.2101232321883</v>
+        <v>718.2101232321884</v>
       </c>
       <c r="M30" t="n">
         <v>1203.243476742415</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>290.0393624836535</v>
+        <v>290.0393624836512</v>
       </c>
       <c r="C31" t="n">
-        <v>245.0344196108742</v>
+        <v>245.0344196108722</v>
       </c>
       <c r="D31" t="n">
-        <v>216.5735531041774</v>
+        <v>216.5735531041757</v>
       </c>
       <c r="E31" t="n">
-        <v>189.1755655310367</v>
+        <v>189.1755655310353</v>
       </c>
       <c r="F31" t="n">
-        <v>161.3059372223542</v>
+        <v>161.3059372223532</v>
       </c>
       <c r="G31" t="n">
-        <v>116.9972152557446</v>
+        <v>116.997215255744</v>
       </c>
       <c r="H31" t="n">
-        <v>82.23559670055889</v>
+        <v>82.2355967005586</v>
       </c>
       <c r="I31" t="n">
-        <v>62.64357896877783</v>
+        <v>62.6435789687779</v>
       </c>
       <c r="J31" t="n">
-        <v>62.64357896877783</v>
+        <v>125.9127466657051</v>
       </c>
       <c r="K31" t="n">
-        <v>164.5346112696</v>
+        <v>159.5169344103485</v>
       </c>
       <c r="L31" t="n">
-        <v>265.1416906698595</v>
+        <v>382.2552810455045</v>
       </c>
       <c r="M31" t="n">
-        <v>505.2664640323574</v>
+        <v>505.2664640323508</v>
       </c>
       <c r="N31" t="n">
-        <v>745.8200730168539</v>
+        <v>745.8200730168477</v>
       </c>
       <c r="O31" t="n">
-        <v>966.4149867474398</v>
+        <v>966.4149867474339</v>
       </c>
       <c r="P31" t="n">
-        <v>1151.514737710474</v>
+        <v>1151.514737710468</v>
       </c>
       <c r="Q31" t="n">
-        <v>1235.875556691851</v>
+        <v>1235.875556691845</v>
       </c>
       <c r="R31" t="n">
-        <v>1210.964801971769</v>
+        <v>1210.964801971764</v>
       </c>
       <c r="S31" t="n">
-        <v>1121.866066040997</v>
+        <v>1121.866066040993</v>
       </c>
       <c r="T31" t="n">
-        <v>1013.298139522216</v>
+        <v>1013.298139522212</v>
       </c>
       <c r="U31" t="n">
-        <v>850.7189266768567</v>
+        <v>850.7189266768527</v>
       </c>
       <c r="V31" t="n">
-        <v>714.5946489008197</v>
+        <v>714.5946489008161</v>
       </c>
       <c r="W31" t="n">
-        <v>553.0492740837592</v>
+        <v>553.0492740837559</v>
       </c>
       <c r="X31" t="n">
-        <v>446.4078366446754</v>
+        <v>446.4078366446724</v>
       </c>
       <c r="Y31" t="n">
-        <v>348.9837045024929</v>
+        <v>348.9837045024902</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1578.511661732583</v>
+        <v>1578.511661732584</v>
       </c>
       <c r="C32" t="n">
-        <v>1334.73540658736</v>
+        <v>1334.735406587361</v>
       </c>
       <c r="D32" t="n">
         <v>1100.068945336554</v>
@@ -6686,61 +6686,61 @@
         <v>843.4407289646301</v>
       </c>
       <c r="F32" t="n">
-        <v>567.4470417967701</v>
+        <v>567.44704179677</v>
       </c>
       <c r="G32" t="n">
-        <v>289.5005587729277</v>
+        <v>289.5005587729278</v>
       </c>
       <c r="H32" t="n">
-        <v>94.83678789220662</v>
+        <v>94.83678789220667</v>
       </c>
       <c r="I32" t="n">
-        <v>60.17709262297225</v>
+        <v>60.17709262297227</v>
       </c>
       <c r="J32" t="n">
-        <v>267.5838060976603</v>
+        <v>209.2156112513621</v>
       </c>
       <c r="K32" t="n">
-        <v>643.1323473443256</v>
+        <v>584.7641524980272</v>
       </c>
       <c r="L32" t="n">
-        <v>1126.425889631154</v>
+        <v>1068.057694784856</v>
       </c>
       <c r="M32" t="n">
-        <v>1655.073225086124</v>
+        <v>1596.705030239826</v>
       </c>
       <c r="N32" t="n">
-        <v>2168.812752975723</v>
+        <v>2110.444558129424</v>
       </c>
       <c r="O32" t="n">
-        <v>2550.85731180414</v>
+        <v>2550.857311804141</v>
       </c>
       <c r="P32" t="n">
-        <v>2914.422377462075</v>
+        <v>2779.014208260194</v>
       </c>
       <c r="Q32" t="n">
-        <v>3008.854631148612</v>
+        <v>3008.854631148613</v>
       </c>
       <c r="R32" t="n">
-        <v>3008.854631148612</v>
+        <v>3008.854631148613</v>
       </c>
       <c r="S32" t="n">
-        <v>2959.783159300936</v>
+        <v>2959.783159300937</v>
       </c>
       <c r="T32" t="n">
-        <v>2873.581716553917</v>
+        <v>2873.581716553918</v>
       </c>
       <c r="U32" t="n">
-        <v>2756.853883789881</v>
+        <v>2756.853883789882</v>
       </c>
       <c r="V32" t="n">
         <v>2558.032113207792</v>
       </c>
       <c r="W32" t="n">
-        <v>2333.654686587362</v>
+        <v>2333.654686587363</v>
       </c>
       <c r="X32" t="n">
-        <v>2089.782049630825</v>
+        <v>2089.782049630826</v>
       </c>
       <c r="Y32" t="n">
         <v>1834.397697728633</v>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>939.4898531250163</v>
+        <v>924.7772356649118</v>
       </c>
       <c r="C33" t="n">
-        <v>777.7861803659711</v>
+        <v>763.0735629058665</v>
       </c>
       <c r="D33" t="n">
-        <v>638.9475433561831</v>
+        <v>624.2349258960786</v>
       </c>
       <c r="E33" t="n">
         <v>491.9195334130543</v>
@@ -6774,7 +6774,7 @@
         <v>128.5593779329113</v>
       </c>
       <c r="I33" t="n">
-        <v>60.17709262297225</v>
+        <v>60.17709262297227</v>
       </c>
       <c r="J33" t="n">
         <v>120.4312391560784</v>
@@ -6813,16 +6813,16 @@
         <v>1944.346484237155</v>
       </c>
       <c r="V33" t="n">
-        <v>1730.663479145594</v>
+        <v>1715.950861685489</v>
       </c>
       <c r="W33" t="n">
-        <v>1489.347610378904</v>
+        <v>1474.634992918799</v>
       </c>
       <c r="X33" t="n">
-        <v>1291.430622256698</v>
+        <v>1276.718004796594</v>
       </c>
       <c r="Y33" t="n">
-        <v>1098.909295906277</v>
+        <v>1084.196678446173</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>192.7475381428434</v>
+        <v>192.7475381428439</v>
       </c>
       <c r="C34" t="n">
-        <v>161.2890721264934</v>
+        <v>161.2890721264937</v>
       </c>
       <c r="D34" t="n">
-        <v>146.3746824762258</v>
+        <v>146.3746824762261</v>
       </c>
       <c r="E34" t="n">
-        <v>132.5231717595142</v>
+        <v>132.5231717595145</v>
       </c>
       <c r="F34" t="n">
-        <v>118.200020307261</v>
+        <v>118.2000203072612</v>
       </c>
       <c r="G34" t="n">
-        <v>87.43777519708063</v>
+        <v>87.43777519708077</v>
       </c>
       <c r="H34" t="n">
-        <v>66.22263349832409</v>
+        <v>66.22263349832417</v>
       </c>
       <c r="I34" t="n">
-        <v>60.17709262297225</v>
+        <v>60.17709262297227</v>
       </c>
       <c r="J34" t="n">
-        <v>136.7231622868854</v>
+        <v>60.17709262297227</v>
       </c>
       <c r="K34" t="n">
-        <v>305.7355192334112</v>
+        <v>229.189449569498</v>
       </c>
       <c r="L34" t="n">
-        <v>541.7507678355531</v>
+        <v>385.7715723919035</v>
       </c>
       <c r="M34" t="n">
-        <v>736.8109686697499</v>
+        <v>503.7650785195052</v>
       </c>
       <c r="N34" t="n">
-        <v>855.2333104193502</v>
+        <v>757.595589470988</v>
       </c>
       <c r="O34" t="n">
-        <v>953.6969569150399</v>
+        <v>856.0592359666776</v>
       </c>
       <c r="P34" t="n">
-        <v>1016.665440643178</v>
+        <v>919.0277196948155</v>
       </c>
       <c r="Q34" t="n">
         <v>1016.665440643178</v>
       </c>
       <c r="R34" t="n">
-        <v>1005.301162779525</v>
+        <v>1005.301162779526</v>
       </c>
       <c r="S34" t="n">
-        <v>929.7489037051827</v>
+        <v>929.7489037051835</v>
       </c>
       <c r="T34" t="n">
-        <v>834.7274540428311</v>
+        <v>834.7274540428319</v>
       </c>
       <c r="U34" t="n">
-        <v>685.6947180539006</v>
+        <v>685.6947180539014</v>
       </c>
       <c r="V34" t="n">
-        <v>563.1169171342929</v>
+        <v>563.1169171342935</v>
       </c>
       <c r="W34" t="n">
-        <v>415.1180191736615</v>
+        <v>415.1180191736622</v>
       </c>
       <c r="X34" t="n">
-        <v>322.0230585910069</v>
+        <v>322.0230585910075</v>
       </c>
       <c r="Y34" t="n">
-        <v>238.1454033052536</v>
+        <v>238.1454033052541</v>
       </c>
     </row>
     <row r="35">
@@ -6932,31 +6932,31 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J35" t="n">
-        <v>123.0992186348914</v>
+        <v>163.2749745479471</v>
       </c>
       <c r="K35" t="n">
-        <v>363.2395906796742</v>
+        <v>567.8831210837623</v>
       </c>
       <c r="L35" t="n">
-        <v>711.1249637646204</v>
+        <v>915.7684941687085</v>
       </c>
       <c r="M35" t="n">
-        <v>1268.831904508741</v>
+        <v>1309.007660421796</v>
       </c>
       <c r="N35" t="n">
-        <v>1811.631037687489</v>
+        <v>1687.339019109512</v>
       </c>
       <c r="O35" t="n">
-        <v>2116.635622160322</v>
+        <v>2156.811378073378</v>
       </c>
       <c r="P35" t="n">
-        <v>2460.60146441775</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q35" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R35" t="n">
         <v>2555.033718104287</v>
@@ -7011,13 +7011,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K36" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L36" t="n">
         <v>706.6672186254962</v>
@@ -7038,13 +7038,13 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S36" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T36" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U36" t="n">
         <v>1949.982683436373</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.90950739287317</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C37" t="n">
-        <v>51.10067436208573</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D37" t="n">
-        <v>65.54268635500836</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E37" t="n">
-        <v>65.54268635500836</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F37" t="n">
-        <v>65.54268635500836</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G37" t="n">
-        <v>64.43007423039063</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H37" t="n">
-        <v>64.43007423039063</v>
+        <v>59.36731927228439</v>
       </c>
       <c r="I37" t="n">
-        <v>64.43007423039063</v>
+        <v>82.50168994950198</v>
       </c>
       <c r="J37" t="n">
-        <v>64.43007423039063</v>
+        <v>82.50168994950198</v>
       </c>
       <c r="K37" t="n">
-        <v>98.03426197503404</v>
+        <v>130.9236227683826</v>
       </c>
       <c r="L37" t="n">
-        <v>198.6413413752936</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M37" t="n">
-        <v>316.6348475028953</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N37" t="n">
-        <v>435.0571892524957</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O37" t="n">
-        <v>533.5208357481854</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P37" t="n">
-        <v>596.4893194763232</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R37" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S37" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T37" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U37" t="n">
-        <v>397.608522376117</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V37" t="n">
-        <v>304.6803544420719</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W37" t="n">
-        <v>186.3310894670033</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X37" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.65773956972072</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="38">
@@ -7178,7 +7178,7 @@
         <v>363.2395906796742</v>
       </c>
       <c r="L38" t="n">
-        <v>826.9339095659941</v>
+        <v>826.9339095659946</v>
       </c>
       <c r="M38" t="n">
         <v>1220.173075819082</v>
@@ -7187,10 +7187,10 @@
         <v>1762.97220899783</v>
       </c>
       <c r="O38" t="n">
-        <v>2232.444567961697</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P38" t="n">
-        <v>2460.60146441775</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q38" t="n">
         <v>2555.033718104287</v>
@@ -7217,7 +7217,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y38" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="39">
@@ -7275,16 +7275,16 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S39" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T39" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U39" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V39" t="n">
         <v>1721.587060884707</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.90950739287318</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C40" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="D40" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="E40" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="F40" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="G40" t="n">
         <v>51.10067436208574</v>
       </c>
-      <c r="D40" t="n">
-        <v>65.54268635500837</v>
-      </c>
-      <c r="E40" t="n">
-        <v>79.39795846875474</v>
-      </c>
-      <c r="F40" t="n">
-        <v>79.39795846875474</v>
-      </c>
-      <c r="G40" t="n">
-        <v>78.28534634413701</v>
-      </c>
       <c r="H40" t="n">
-        <v>78.28534634413701</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I40" t="n">
-        <v>78.28534634413701</v>
+        <v>74.23504503930334</v>
       </c>
       <c r="J40" t="n">
-        <v>78.28534634413701</v>
+        <v>74.23504503930334</v>
       </c>
       <c r="K40" t="n">
-        <v>111.8895340887804</v>
+        <v>107.8392327839468</v>
       </c>
       <c r="L40" t="n">
-        <v>212.4966134890399</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M40" t="n">
-        <v>330.4901196166417</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N40" t="n">
-        <v>448.912461366242</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O40" t="n">
-        <v>547.3761078619317</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P40" t="n">
-        <v>610.3445915900695</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q40" t="n">
-        <v>610.3445915900695</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R40" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S40" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T40" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U40" t="n">
-        <v>397.6085223761172</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V40" t="n">
-        <v>304.680354442072</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W40" t="n">
-        <v>186.3310894670034</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X40" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.65773956972075</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7391,10 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D41" t="n">
-        <v>942.7443621478541</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E41" t="n">
-        <v>715.7657787614932</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F41" t="n">
         <v>469.4217245791957</v>
@@ -7403,34 +7403,34 @@
         <v>221.1248745409159</v>
       </c>
       <c r="H41" t="n">
-        <v>56.11073664575752</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I41" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
-        <v>287.5669931259237</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K41" t="n">
-        <v>527.7073651707065</v>
+        <v>403.4153465927301</v>
       </c>
       <c r="L41" t="n">
-        <v>875.5927382556526</v>
+        <v>915.7684941687087</v>
       </c>
       <c r="M41" t="n">
-        <v>1433.299678999773</v>
+        <v>1309.007660421797</v>
       </c>
       <c r="N41" t="n">
-        <v>1927.439983488863</v>
+        <v>1687.339019109512</v>
       </c>
       <c r="O41" t="n">
-        <v>2232.444567961697</v>
+        <v>1992.343603582346</v>
       </c>
       <c r="P41" t="n">
-        <v>2460.60146441775</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q41" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
@@ -7451,10 +7451,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X41" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y41" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C42" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D42" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E42" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F42" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G42" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H42" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I42" t="n">
         <v>51.10067436208574</v>
@@ -7518,22 +7518,22 @@
         <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U42" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V42" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W42" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X42" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y42" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.90950739287324</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C43" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="D43" t="n">
-        <v>51.10067436208574</v>
+        <v>65.54268635500837</v>
       </c>
       <c r="E43" t="n">
-        <v>52.21328648670352</v>
+        <v>65.54268635500837</v>
       </c>
       <c r="F43" t="n">
-        <v>52.21328648670352</v>
+        <v>65.54268635500837</v>
       </c>
       <c r="G43" t="n">
-        <v>51.10067436208574</v>
+        <v>64.43007423039064</v>
       </c>
       <c r="H43" t="n">
-        <v>51.10067436208574</v>
+        <v>72.69671914058929</v>
       </c>
       <c r="I43" t="n">
-        <v>51.10067436208574</v>
+        <v>72.69671914058929</v>
       </c>
       <c r="J43" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="K43" t="n">
-        <v>129.8110106437655</v>
+        <v>129.8110106437649</v>
       </c>
       <c r="L43" t="n">
-        <v>230.4180900440251</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M43" t="n">
-        <v>348.4115961716268</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N43" t="n">
-        <v>466.8339379212272</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O43" t="n">
-        <v>565.2975844169168</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P43" t="n">
-        <v>628.2660681450546</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q43" t="n">
-        <v>628.2660681450546</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R43" t="n">
-        <v>628.2660681450546</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S43" t="n">
-        <v>582.3634420562744</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T43" t="n">
-        <v>516.9916253794854</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U43" t="n">
-        <v>397.6085223761174</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V43" t="n">
-        <v>304.6803544420723</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W43" t="n">
-        <v>186.3310894670036</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X43" t="n">
-        <v>122.8857618699116</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.65773956972086</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7622,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1361.887812572758</v>
+        <v>1361.887812572759</v>
       </c>
       <c r="C44" t="n">
-        <v>1147.761190413097</v>
+        <v>1147.761190413098</v>
       </c>
       <c r="D44" t="n">
-        <v>942.7443621478535</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E44" t="n">
-        <v>715.7657787614926</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F44" t="n">
-        <v>469.4217245791951</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G44" t="n">
-        <v>221.1248745409157</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H44" t="n">
-        <v>56.11073664575752</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I44" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J44" t="n">
-        <v>287.5669931259237</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K44" t="n">
-        <v>527.7073651707065</v>
+        <v>479.0485364810482</v>
       </c>
       <c r="L44" t="n">
-        <v>875.5927382556526</v>
+        <v>991.4016840570268</v>
       </c>
       <c r="M44" t="n">
-        <v>1268.831904508741</v>
+        <v>1384.640850310115</v>
       </c>
       <c r="N44" t="n">
         <v>1762.97220899783</v>
@@ -7676,16 +7676,16 @@
         <v>2535.611879242173</v>
       </c>
       <c r="T44" t="n">
-        <v>2479.060069480716</v>
+        <v>2479.060069480717</v>
       </c>
       <c r="U44" t="n">
-        <v>2391.981869702242</v>
+        <v>2391.981869702243</v>
       </c>
       <c r="V44" t="n">
-        <v>2222.809732105716</v>
+        <v>2222.809732105717</v>
       </c>
       <c r="W44" t="n">
-        <v>2028.081938470849</v>
+        <v>2028.08193847085</v>
       </c>
       <c r="X44" t="n">
         <v>1813.858934499875</v>
@@ -7722,13 +7722,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I45" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J45" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K45" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L45" t="n">
         <v>706.6672186254962</v>
@@ -7749,13 +7749,13 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S45" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U45" t="n">
         <v>1949.982683436373</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.90950739287324</v>
+        <v>54.02211951749089</v>
       </c>
       <c r="C46" t="n">
-        <v>51.10067436208574</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="D46" t="n">
-        <v>51.10067436208574</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E46" t="n">
-        <v>66.58441399778665</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F46" t="n">
-        <v>74.18506434652238</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G46" t="n">
-        <v>73.0724522219046</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H46" t="n">
-        <v>73.0724522219046</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I46" t="n">
-        <v>96.20682289912213</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J46" t="n">
-        <v>96.20682289912213</v>
+        <v>97.31943502373917</v>
       </c>
       <c r="K46" t="n">
-        <v>129.8110106437655</v>
+        <v>130.9236227683826</v>
       </c>
       <c r="L46" t="n">
-        <v>230.4180900440251</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M46" t="n">
-        <v>348.4115961716268</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N46" t="n">
-        <v>466.8339379212272</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O46" t="n">
-        <v>565.2975844169168</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P46" t="n">
-        <v>628.2660681450546</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q46" t="n">
-        <v>628.2660681450546</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R46" t="n">
-        <v>628.2660681450546</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S46" t="n">
-        <v>582.3634420562744</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T46" t="n">
-        <v>516.9916253794854</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U46" t="n">
-        <v>397.6085223761174</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V46" t="n">
-        <v>304.6803544420723</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W46" t="n">
-        <v>186.3310894670036</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X46" t="n">
-        <v>122.8857618699116</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.65773956972086</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
-        <v>372.0362215226474</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
         <v>542.9595789155856</v>
@@ -7991,7 +7991,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
-        <v>495.0402356415689</v>
+        <v>372.9616185259362</v>
       </c>
       <c r="P2" t="n">
         <v>418.3383206229274</v>
@@ -8064,16 +8064,16 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>361.2063191860203</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>601.1872630101288</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>359.1160642775819</v>
       </c>
       <c r="Q3" t="n">
         <v>273.1004740566038</v>
@@ -8225,13 +8225,13 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N5" t="n">
-        <v>446.4723846199492</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
-        <v>418.3383206229274</v>
+        <v>296.2597035072947</v>
       </c>
       <c r="Q5" t="n">
         <v>276.0094878578761</v>
@@ -8292,28 +8292,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>163.9641665429468</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>601.1872630101288</v>
+        <v>601.1872630101282</v>
       </c>
       <c r="O6" t="n">
-        <v>512.0210150597484</v>
+        <v>488.038808258343</v>
       </c>
       <c r="P6" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8538,10 +8538,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>605.4165828749999</v>
+        <v>376.4077763449607</v>
       </c>
       <c r="N9" t="n">
-        <v>394.1362801165803</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>273.1004740566041</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>273.1004740566041</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9258,7 +9258,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>414.0015992319183</v>
+        <v>414.0015992319188</v>
       </c>
       <c r="Q18" t="n">
         <v>273.1004740566038</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>273.1004740566041</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>273.1004740566032</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11382,7 +11382,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.416582875</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
         <v>623.1450866466196</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>278.0815430309093</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>320.9287645862145</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>238.4788795645244</v>
       </c>
       <c r="I11" t="n">
-        <v>80.07484470915256</v>
+        <v>80.07484470915257</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>73.94161941744828</v>
+        <v>5.255347894205102</v>
       </c>
       <c r="T11" t="n">
         <v>131.1011747121595</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>161.3223008290065</v>
       </c>
       <c r="V11" t="n">
         <v>242.5952992688787</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>267.8953987468356</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.85628800140561</v>
+        <v>90.70563290339665</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>60.52699214637551</v>
+        <v>29.330689290795</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>59.94166633034128</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>66.76473667437953</v>
       </c>
       <c r="I13" t="n">
-        <v>51.74683185920887</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>167.1137693030223</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>137.9257573694386</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>128.8006251255063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>281.6658437408516</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>130.4110997893259</v>
+        <v>272.6471477853801</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>233.0444843189952</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>88.90810827628049</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>237.1609040233495</v>
       </c>
       <c r="W14" t="n">
-        <v>262.4610035013059</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>281.7612617340525</v>
+        <v>9.196921383846984</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>293.1578595302518</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>48.01837635718281</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>55.09259690084632</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>54.50727108481207</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>70.78197380615991</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>61.33034142885033</v>
       </c>
       <c r="I16" t="n">
-        <v>22.84061114112186</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.1240876306802</v>
+        <v>115.1240876306807</v>
       </c>
       <c r="T16" t="n">
-        <v>134.3985863128088</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>132.4913621239089</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-6.394884621840902e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>19.52415946587217</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>61.99176921706422</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24737,7 +24737,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>81.51592868294529</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>843386.3081558109</v>
+        <v>843386.3081558099</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>959530.075617727</v>
+        <v>959530.0756177272</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>951419.2407137741</v>
+        <v>951419.240713775</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>383812.030247091</v>
+      </c>
+      <c r="C2" t="n">
         <v>383812.0302470912</v>
-      </c>
-      <c r="C2" t="n">
-        <v>383812.030247091</v>
       </c>
       <c r="D2" t="n">
         <v>383812.0302470911</v>
       </c>
       <c r="E2" t="n">
-        <v>332555.4653387083</v>
+        <v>332555.4653387082</v>
       </c>
       <c r="F2" t="n">
-        <v>337354.5232623241</v>
+        <v>337354.5232623243</v>
       </c>
       <c r="G2" t="n">
-        <v>383812.0302470901</v>
+        <v>383812.0302470904</v>
       </c>
       <c r="H2" t="n">
         <v>383812.0302470902</v>
       </c>
       <c r="I2" t="n">
+        <v>383812.0302470902</v>
+      </c>
+      <c r="J2" t="n">
+        <v>383812.0302470904</v>
+      </c>
+      <c r="K2" t="n">
+        <v>380567.6962855095</v>
+      </c>
+      <c r="L2" t="n">
+        <v>383812.0302470913</v>
+      </c>
+      <c r="M2" t="n">
         <v>383812.0302470903</v>
-      </c>
-      <c r="J2" t="n">
-        <v>383812.0302470918</v>
-      </c>
-      <c r="K2" t="n">
-        <v>380567.6962855092</v>
-      </c>
-      <c r="L2" t="n">
-        <v>383812.0302470914</v>
-      </c>
-      <c r="M2" t="n">
-        <v>383812.0302470902</v>
       </c>
       <c r="N2" t="n">
         <v>383812.0302470902</v>
       </c>
       <c r="O2" t="n">
-        <v>383812.0302470904</v>
+        <v>383812.0302470902</v>
       </c>
       <c r="P2" t="n">
-        <v>383812.0302470905</v>
+        <v>383812.0302470902</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165708.9809217098</v>
+        <v>165708.9809217096</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9577.058169969836</v>
+        <v>9577.058169970049</v>
       </c>
       <c r="E3" t="n">
         <v>106686.5808190487</v>
       </c>
       <c r="F3" t="n">
-        <v>4347.516196423749</v>
+        <v>4347.516196423294</v>
       </c>
       <c r="G3" t="n">
-        <v>55744.39024223023</v>
+        <v>55744.39024223069</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>210074.8534117973</v>
+        <v>210074.8534117971</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>66473.19991252219</v>
+        <v>66473.19991252232</v>
       </c>
       <c r="M3" t="n">
-        <v>23482.50932456562</v>
+        <v>23482.50932456565</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>42947.54287687768</v>
+        <v>42947.54287687752</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194085.0251368515</v>
+        <v>194085.0251368516</v>
       </c>
       <c r="C4" t="n">
-        <v>194085.0251368515</v>
+        <v>194085.0251368516</v>
       </c>
       <c r="D4" t="n">
         <v>185775.7593332931</v>
       </c>
       <c r="E4" t="n">
-        <v>117292.1668740727</v>
+        <v>117292.1668740728</v>
       </c>
       <c r="F4" t="n">
-        <v>122783.871750641</v>
+        <v>122783.8717506406</v>
       </c>
       <c r="G4" t="n">
         <v>175623.1205402357</v>
@@ -26436,13 +26436,13 @@
         <v>175623.1205402357</v>
       </c>
       <c r="I4" t="n">
-        <v>175623.1205402357</v>
+        <v>175623.1205402356</v>
       </c>
       <c r="J4" t="n">
         <v>176365.9509897422</v>
       </c>
       <c r="K4" t="n">
-        <v>172689.8105149081</v>
+        <v>172689.8105149085</v>
       </c>
       <c r="L4" t="n">
         <v>176200.8165314007</v>
@@ -26454,10 +26454,10 @@
         <v>175623.1205402357</v>
       </c>
       <c r="O4" t="n">
-        <v>175623.1205402356</v>
+        <v>175623.1205402357</v>
       </c>
       <c r="P4" t="n">
-        <v>175623.1205402356</v>
+        <v>175623.1205402357</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63691.50501409917</v>
+        <v>63691.50501409912</v>
       </c>
       <c r="C5" t="n">
-        <v>63691.50501409917</v>
+        <v>63691.50501409912</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>46487.98378965736</v>
+        <v>46487.98378965738</v>
       </c>
       <c r="F5" t="n">
-        <v>46944.84796355382</v>
+        <v>46944.84796355377</v>
       </c>
       <c r="G5" t="n">
         <v>52802.81689264638</v>
@@ -26491,13 +26491,13 @@
         <v>52802.81689264637</v>
       </c>
       <c r="J5" t="n">
-        <v>58437.14934690545</v>
+        <v>58437.14934690548</v>
       </c>
       <c r="K5" t="n">
-        <v>57980.28517300901</v>
+        <v>57980.2851730091</v>
       </c>
       <c r="L5" t="n">
-        <v>57233.20592541149</v>
+        <v>57233.2059254115</v>
       </c>
       <c r="M5" t="n">
         <v>52802.81689264637</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-39673.48082556926</v>
+        <v>-39673.48082556939</v>
       </c>
       <c r="C6" t="n">
         <v>126035.5000961404</v>
       </c>
       <c r="D6" t="n">
-        <v>122893.1781069168</v>
+        <v>122893.1781069165</v>
       </c>
       <c r="E6" t="n">
-        <v>62088.73385592952</v>
+        <v>61832.45103138735</v>
       </c>
       <c r="F6" t="n">
-        <v>163278.2873517055</v>
+        <v>163045.9998167828</v>
       </c>
       <c r="G6" t="n">
-        <v>99641.70257197785</v>
+        <v>99641.70257197764</v>
       </c>
       <c r="H6" t="n">
-        <v>155386.092814208</v>
+        <v>155386.0928142081</v>
       </c>
       <c r="I6" t="n">
-        <v>155386.0928142083</v>
+        <v>155386.0928142082</v>
       </c>
       <c r="J6" t="n">
-        <v>-61065.92350135308</v>
+        <v>-61065.92350135437</v>
       </c>
       <c r="K6" t="n">
-        <v>149897.600597592</v>
+        <v>149881.378927784</v>
       </c>
       <c r="L6" t="n">
-        <v>83904.807877757</v>
+        <v>83904.80787775682</v>
       </c>
       <c r="M6" t="n">
-        <v>131903.5834896425</v>
+        <v>131903.5834896426</v>
       </c>
       <c r="N6" t="n">
         <v>155386.0928142082</v>
@@ -26561,7 +26561,7 @@
         <v>112438.5499373307</v>
       </c>
       <c r="P6" t="n">
-        <v>155386.0928142085</v>
+        <v>155386.0928142082</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="F2" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="G2" t="n">
         <v>166.1290651424569</v>
@@ -26707,10 +26707,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J2" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="K2" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="L2" t="n">
         <v>136.7759284867499</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>494.4721219424206</v>
+        <v>494.4721219424199</v>
       </c>
       <c r="C4" t="n">
-        <v>494.4721219424206</v>
+        <v>494.4721219424199</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>638.7584295260716</v>
+        <v>638.758429526072</v>
       </c>
       <c r="F4" t="n">
         <v>638.758429526072</v>
@@ -26811,16 +26811,16 @@
         <v>638.7584295260716</v>
       </c>
       <c r="J4" t="n">
-        <v>783.0447371097229</v>
+        <v>783.0447371097238</v>
       </c>
       <c r="K4" t="n">
-        <v>783.0447371097229</v>
+        <v>783.0447371097238</v>
       </c>
       <c r="L4" t="n">
-        <v>752.2136577871531</v>
+        <v>752.2136577871534</v>
       </c>
       <c r="M4" t="n">
-        <v>638.7584295260716</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="N4" t="n">
         <v>638.7584295260717</v>
@@ -26829,7 +26829,7 @@
         <v>638.7584295260717</v>
       </c>
       <c r="P4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260716</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="F2" t="n">
-        <v>5.434395245529686</v>
+        <v>5.434395245529117</v>
       </c>
       <c r="G2" t="n">
-        <v>69.68048780278779</v>
+        <v>69.68048780278836</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>53.68442859609715</v>
+        <v>53.68442859609691</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>83.09149989065274</v>
+        <v>83.09149989065291</v>
       </c>
       <c r="M2" t="n">
-        <v>29.35313665570703</v>
+        <v>29.35313665570706</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.68442859609709</v>
+        <v>53.68442859609691</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>494.4721219424206</v>
+        <v>494.4721219424199</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>30.83107932256974</v>
+        <v>30.83107932257042</v>
       </c>
       <c r="E4" t="n">
-        <v>113.4552282610814</v>
+        <v>113.4552282610816</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.758429526072</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="K2" t="n">
-        <v>5.434395245529686</v>
+        <v>5.434395245529117</v>
       </c>
       <c r="L2" t="n">
-        <v>69.68048780278779</v>
+        <v>69.68048780278836</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.68442859609715</v>
+        <v>53.68442859609691</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>494.4721219424206</v>
+        <v>494.4721219424199</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>30.83107932256974</v>
+        <v>30.83107932257042</v>
       </c>
       <c r="M4" t="n">
-        <v>113.4552282610814</v>
+        <v>113.4552282610816</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>201.8972082083006</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
@@ -27442,7 +27442,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>234.3634029747823</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -27458,13 +27458,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>148.8108308814397</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27518,13 +27518,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>36.37956881576548</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
         <v>167.9198098429365</v>
@@ -27543,13 +27543,13 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>157.7789187685189</v>
@@ -27558,7 +27558,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>230.8471636524779</v>
@@ -27594,7 +27594,7 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>161.2066718303358</v>
+        <v>148.3444826527141</v>
       </c>
       <c r="W4" t="n">
         <v>283.2948374677749</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>123.9895107783619</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>252.3364829231459</v>
@@ -27676,10 +27676,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>77.06668438851068</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -27707,10 +27707,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>225.7907755744479</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>64.33450774253369</v>
       </c>
     </row>
     <row r="7">
@@ -27792,7 +27792,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>59.456666199969</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>130.164362280128</v>
       </c>
       <c r="U7" t="n">
-        <v>155.3308807972808</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
@@ -27907,13 +27907,13 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>151.2155343193867</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>330.5382099015305</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27935,10 +27935,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,19 +27980,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>104.1560981808816</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>12.44103031728636</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28017,7 +28017,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>150.9558484244806</v>
@@ -28032,7 +28032,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>85.0119824595966</v>
+        <v>66.17009992564849</v>
       </c>
       <c r="U10" t="n">
         <v>284.3183371157911</v>
@@ -28071,7 +28071,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="C11" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="D11" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="E11" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="F11" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="G11" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="H11" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="I11" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="J11" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="K11" t="n">
-        <v>91.01418209413939</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>91.01418209413939</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="N11" t="n">
-        <v>91.01418209413939</v>
+        <v>83.8978565860242</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="Q11" t="n">
-        <v>85.1801350410567</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>89.73190363910518</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="S11" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="T11" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="U11" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="V11" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="W11" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="X11" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
     </row>
     <row r="12">
@@ -28184,7 +28184,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>14.56549128550283</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -28223,7 +28223,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="C13" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="D13" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="E13" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="F13" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="G13" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="H13" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="I13" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="J13" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="K13" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="L13" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="M13" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="N13" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="O13" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="P13" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="R13" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="S13" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="T13" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="U13" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="V13" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="W13" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="X13" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.01418209413939</v>
+        <v>91.01418209413937</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="C14" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="D14" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="E14" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="F14" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="G14" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="H14" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="I14" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="J14" t="n">
-        <v>63.44255405893904</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="L14" t="n">
-        <v>96.44857733966909</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="N14" t="n">
-        <v>96.44857733966909</v>
+        <v>63.44255405894148</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="Q14" t="n">
-        <v>96.44857733966909</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="T14" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="U14" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="V14" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="W14" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="X14" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="Y14" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
     </row>
     <row r="15">
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>14.56549128550282</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>14.5654912855027</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="C16" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="D16" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="E16" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="F16" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="G16" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="H16" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="I16" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="J16" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="K16" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="L16" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="M16" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="N16" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="O16" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="P16" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="Q16" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="R16" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="S16" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="T16" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="U16" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="V16" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="W16" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="X16" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.44857733966909</v>
+        <v>96.44857733966857</v>
       </c>
     </row>
     <row r="17">
@@ -28585,7 +28585,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -28594,7 +28594,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28606,10 +28606,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="Q17" t="n">
-        <v>40.58157162935046</v>
+        <v>116.9787331327017</v>
       </c>
       <c r="R17" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
         <v>166.1290651424569</v>
@@ -28652,7 +28652,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>14.56549128550284</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -28703,7 +28703,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>14.56549128550282</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -28758,13 +28758,13 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>46.68561682995366</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>38.15196793284785</v>
+        <v>84.83758476280077</v>
       </c>
       <c r="R19" t="n">
         <v>148.0265635717656</v>
@@ -28828,25 +28828,25 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="M20" t="n">
-        <v>116.9787331327019</v>
-      </c>
       <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>40.58157162935046</v>
       </c>
       <c r="R20" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S20" t="n">
         <v>166.1290651424569</v>
@@ -28962,7 +28962,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5411742405149</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
@@ -28974,7 +28974,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H22" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I22" t="n">
         <v>142.7610139533483</v>
@@ -28983,7 +28983,7 @@
         <v>59.456666199969</v>
       </c>
       <c r="K22" t="n">
-        <v>46.68561682995295</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>5.645077983381555</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
-        <v>148.0265635717656</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S22" t="n">
         <v>166.1290651424569</v>
@@ -29062,19 +29062,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>116.9787331327005</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>116.9787331327007</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="O23" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>166.1290651424569</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="C26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="D26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="E26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="F26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="G26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="H26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="I26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="J26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="K26" t="n">
-        <v>128.7993116444147</v>
+        <v>79.88975443465287</v>
       </c>
       <c r="L26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="M26" t="n">
-        <v>79.88975443464739</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="N26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="O26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="P26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="Q26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="R26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="S26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="T26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="U26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="V26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="W26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="X26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="Y26" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
     </row>
     <row r="27">
@@ -29405,13 +29405,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>14.56549128550355</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>14.56549128550333</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="C28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="D28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="E28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="F28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="G28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="H28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="I28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="J28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="L28" t="n">
-        <v>128.7993116444147</v>
+        <v>12.54553292931128</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="O28" t="n">
-        <v>12.54553292930636</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="P28" t="n">
-        <v>128.7993116444147</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="R28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="S28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="T28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="U28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="V28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="W28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="X28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.7993116444147</v>
+        <v>128.7993116444145</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="C29" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="D29" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="E29" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="F29" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="G29" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="H29" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="I29" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="J29" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="K29" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="L29" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="M29" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="N29" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="O29" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="P29" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="R29" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="S29" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="T29" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="U29" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="V29" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="W29" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="X29" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="Y29" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
     </row>
     <row r="30">
@@ -29594,13 +29594,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>14.56549128550347</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>14.56549128550341</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="C31" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="D31" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="E31" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="F31" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="G31" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="H31" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="I31" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="J31" t="n">
-        <v>59.456666199969</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="K31" t="n">
-        <v>68.97661066280685</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="M31" t="n">
-        <v>123.364916398885</v>
+        <v>5.068360463883451</v>
       </c>
       <c r="N31" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="O31" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="P31" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="Q31" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="R31" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="S31" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="T31" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="U31" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="V31" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="W31" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="X31" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
       <c r="Y31" t="n">
-        <v>123.364916398885</v>
+        <v>123.3649163988854</v>
       </c>
     </row>
     <row r="32">
@@ -29770,7 +29770,7 @@
         <v>136.7759284867499</v>
       </c>
       <c r="J32" t="n">
-        <v>136.7759284867499</v>
+        <v>77.81815591473151</v>
       </c>
       <c r="K32" t="n">
         <v>136.7759284867499</v>
@@ -29785,13 +29785,13 @@
         <v>136.7759284867499</v>
       </c>
       <c r="O32" t="n">
-        <v>77.81815591473077</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
         <v>136.7759284867499</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>89.73190363910518</v>
@@ -29834,7 +29834,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>14.56549128550341</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -29885,7 +29885,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>14.56549128550333</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -29928,20 +29928,20 @@
         <v>136.7759284867499</v>
       </c>
       <c r="J34" t="n">
-        <v>136.7759284867499</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K34" t="n">
         <v>136.7759284867499</v>
       </c>
       <c r="L34" t="n">
+        <v>56.54044790115751</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
         <v>136.7759284867499</v>
       </c>
-      <c r="M34" t="n">
-        <v>77.84514616827778</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
@@ -29949,7 +29949,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>38.15196793284785</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="R34" t="n">
         <v>136.7759284867499</v>
@@ -30007,31 +30007,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>40.58157162934923</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="N35" t="n">
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>116.9787331327013</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30119,7 +30119,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30147,7 +30147,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D37" t="n">
-        <v>166.1290651424569</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -30159,16 +30159,16 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H37" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I37" t="n">
-        <v>142.7610139533483</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="J37" t="n">
         <v>59.456666199969</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>14.96741926690625</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.24969386085871</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
         <v>148.0265635717656</v>
@@ -30250,7 +30250,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>116.9787331327007</v>
+        <v>116.9787331327012</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -30259,13 +30259,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>89.73190363910518</v>
@@ -30353,13 +30353,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>14.56549128550355</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>14.56549128550378</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30384,10 +30384,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D40" t="n">
-        <v>166.1290651424569</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>164.4841484536139</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
@@ -30399,7 +30399,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
-        <v>142.7610139533483</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="J40" t="n">
         <v>59.456666199969</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>23.31756564084429</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R40" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S40" t="n">
         <v>166.1290651424569</v>
@@ -30481,31 +30481,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>40.58157162934944</v>
+      </c>
+      <c r="L41" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="N41" t="n">
-        <v>116.9787331327012</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
       <c r="R41" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S41" t="n">
         <v>166.1290651424569</v>
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30590,7 +30590,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>14.56549128550355</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30621,10 +30621,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="E43" t="n">
-        <v>151.6127747272214</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
         <v>150.9558484244806</v>
@@ -30633,16 +30633,16 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H43" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I43" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J43" t="n">
-        <v>59.456666199969</v>
+        <v>83.20424575404188</v>
       </c>
       <c r="K43" t="n">
-        <v>45.56176619902665</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30718,19 +30718,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>116.9787331327011</v>
+      </c>
+      <c r="L44" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>116.9787331327012</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30830,7 +30830,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30861,10 +30861,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>166.1290651424569</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>158.6332730191632</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
         <v>166.1290651424569</v>
@@ -30873,10 +30873,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I46" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J46" t="n">
-        <v>59.456666199969</v>
+        <v>106.142283029922</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -32078,7 +32078,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -32312,7 +32312,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -32549,7 +32549,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
-        <v>193.2132175486007</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
         <v>351.3993667524709</v>
@@ -34711,7 +34711,7 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
-        <v>308.0854388614484</v>
+        <v>186.0068217458157</v>
       </c>
       <c r="P2" t="n">
         <v>230.4615115717709</v>
@@ -34784,16 +34784,16 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>245.7224166243805</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>494.4721219424206</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>250.2618582534386</v>
       </c>
       <c r="Q3" t="n">
         <v>159.3652826117113</v>
@@ -34945,13 +34945,13 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N5" t="n">
-        <v>260.0742704477191</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>230.4615115717709</v>
+        <v>108.3828944561382</v>
       </c>
       <c r="Q5" t="n">
         <v>95.38611483488586</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>51.96799737628012</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>494.4721219424206</v>
+        <v>494.4721219424199</v>
       </c>
       <c r="O6" t="n">
-        <v>396.1615664486372</v>
+        <v>372.1793596472319</v>
       </c>
       <c r="P6" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>489.93268031336</v>
+        <v>260.9238737833207</v>
       </c>
       <c r="N9" t="n">
-        <v>287.421139048872</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>163.7399843899027</v>
+        <v>163.7399843899026</v>
       </c>
       <c r="K11" t="n">
-        <v>333.5802144626068</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
-        <v>442.4135488466103</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M11" t="n">
-        <v>397.2112790435232</v>
+        <v>488.2254611376625</v>
       </c>
       <c r="N11" t="n">
-        <v>473.1670696574886</v>
+        <v>466.0507441493734</v>
       </c>
       <c r="O11" t="n">
-        <v>308.0854388614484</v>
+        <v>399.0996209555878</v>
       </c>
       <c r="P11" t="n">
-        <v>230.4615115717709</v>
+        <v>321.4756936659103</v>
       </c>
       <c r="Q11" t="n">
-        <v>180.5662498759426</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.282278455034188</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117116</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.55751589417039</v>
+        <v>31.55751589417037</v>
       </c>
       <c r="K13" t="n">
         <v>124.9578060786277</v>
@@ -35586,7 +35586,7 @@
         <v>154.6187111124604</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.86221416129153</v>
+        <v>52.86221416129152</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>136.1683563547023</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K14" t="n">
-        <v>339.0146097081365</v>
+        <v>339.014609708136</v>
       </c>
       <c r="L14" t="n">
-        <v>447.84794409214</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
-        <v>397.2112790435232</v>
+        <v>493.6598563831918</v>
       </c>
       <c r="N14" t="n">
-        <v>478.6014649030183</v>
+        <v>445.5954416222907</v>
       </c>
       <c r="O14" t="n">
-        <v>308.0854388614484</v>
+        <v>404.534016201117</v>
       </c>
       <c r="P14" t="n">
-        <v>230.4615115717709</v>
+        <v>326.9100889114395</v>
       </c>
       <c r="Q14" t="n">
-        <v>191.834692174555</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
-        <v>231.8086389496865</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
         <v>369.5170153233491</v>
@@ -35744,7 +35744,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117116</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>36.99191113970009</v>
+        <v>36.99191113969957</v>
       </c>
       <c r="K16" t="n">
-        <v>130.3922013241574</v>
+        <v>130.3922013241569</v>
       </c>
       <c r="L16" t="n">
-        <v>198.0718898651837</v>
+        <v>198.0718898651832</v>
       </c>
       <c r="M16" t="n">
-        <v>215.6339370645193</v>
+        <v>215.6339370645188</v>
       </c>
       <c r="N16" t="n">
-        <v>216.0671043594674</v>
+        <v>216.0671043594669</v>
       </c>
       <c r="O16" t="n">
-        <v>195.906806123194</v>
+        <v>195.9068061231935</v>
       </c>
       <c r="P16" t="n">
-        <v>160.0531063579901</v>
+        <v>160.0531063579896</v>
       </c>
       <c r="Q16" t="n">
-        <v>58.29660940682123</v>
+        <v>58.29660940682072</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K17" t="n">
         <v>242.5660323684674</v>
@@ -35890,7 +35890,7 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
-        <v>563.34034418598</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
         <v>382.1528875633492</v>
@@ -35902,10 +35902,10 @@
         <v>396.5905767142278</v>
       </c>
       <c r="Q17" t="n">
-        <v>135.9676864642363</v>
+        <v>212.3648479675875</v>
       </c>
       <c r="R17" t="n">
-        <v>76.3971615033517</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.86277427586579</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
         <v>231.8086389496855</v>
@@ -35978,7 +35978,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P18" t="n">
-        <v>305.147393207775</v>
+        <v>305.1473932077755</v>
       </c>
       <c r="Q18" t="n">
         <v>159.3652826117113</v>
@@ -36054,13 +36054,13 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O19" t="n">
-        <v>146.1438456134786</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P19" t="n">
         <v>63.604529018321</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>46.68561682995292</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L20" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
-        <v>514.1900121762251</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N20" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O20" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q20" t="n">
-        <v>95.38611483488586</v>
+        <v>135.9676864642363</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.86277427586579</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
         <v>231.8086389496855</v>
@@ -36218,7 +36218,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117116</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36258,7 +36258,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>14.58789090194205</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -36270,7 +36270,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>80.62924081444125</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L22" t="n">
         <v>101.6233125255146</v>
@@ -36288,7 +36288,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N22" t="n">
-        <v>119.6185270197983</v>
+        <v>125.2636050031799</v>
       </c>
       <c r="O22" t="n">
         <v>99.45822878352493</v>
@@ -36300,7 +36300,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>18.10250157069137</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36358,19 +36358,19 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
-        <v>359.5447655011679</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M23" t="n">
-        <v>397.2112790435232</v>
+        <v>514.1900121762238</v>
       </c>
       <c r="N23" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O23" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P23" t="n">
         <v>396.5905767142278</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>201.525113940178</v>
+        <v>201.5251139401778</v>
       </c>
       <c r="K26" t="n">
-        <v>371.3653440128821</v>
+        <v>322.4557868031203</v>
       </c>
       <c r="L26" t="n">
-        <v>480.1986783968856</v>
+        <v>480.1986783968854</v>
       </c>
       <c r="M26" t="n">
-        <v>477.1010334781706</v>
+        <v>526.0105906879377</v>
       </c>
       <c r="N26" t="n">
-        <v>510.9521992077639</v>
+        <v>510.9521992077637</v>
       </c>
       <c r="O26" t="n">
-        <v>436.8847505058632</v>
+        <v>436.8847505058629</v>
       </c>
       <c r="P26" t="n">
-        <v>359.2608232161856</v>
+        <v>359.2608232161854</v>
       </c>
       <c r="Q26" t="n">
-        <v>224.1854264793006</v>
+        <v>224.1854264793003</v>
       </c>
       <c r="R26" t="n">
-        <v>39.06740800530952</v>
+        <v>39.06740800530929</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>69.34264544444571</v>
+        <v>69.34264544444548</v>
       </c>
       <c r="K28" t="n">
-        <v>33.9436239844883</v>
+        <v>162.7429356289028</v>
       </c>
       <c r="L28" t="n">
-        <v>230.4226241699293</v>
+        <v>114.1688454548259</v>
       </c>
       <c r="M28" t="n">
         <v>119.1853597248502</v>
       </c>
       <c r="N28" t="n">
-        <v>248.417838664213</v>
+        <v>248.4178386642128</v>
       </c>
       <c r="O28" t="n">
-        <v>112.0037617128313</v>
+        <v>228.2575404279394</v>
       </c>
       <c r="P28" t="n">
-        <v>192.4038406627357</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q28" t="n">
-        <v>90.64734371156685</v>
+        <v>90.64734371156662</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>196.0907186946483</v>
+        <v>196.0907186946486</v>
       </c>
       <c r="K29" t="n">
-        <v>365.9309487673524</v>
+        <v>365.9309487673528</v>
       </c>
       <c r="L29" t="n">
-        <v>474.7642831513559</v>
+        <v>474.7642831513563</v>
       </c>
       <c r="M29" t="n">
-        <v>520.5761954424082</v>
+        <v>520.5761954424086</v>
       </c>
       <c r="N29" t="n">
-        <v>505.5178039622342</v>
+        <v>505.5178039622346</v>
       </c>
       <c r="O29" t="n">
-        <v>431.4503552603335</v>
+        <v>431.4503552603338</v>
       </c>
       <c r="P29" t="n">
-        <v>353.8264279706559</v>
+        <v>353.8264279706563</v>
       </c>
       <c r="Q29" t="n">
-        <v>218.7510312337709</v>
+        <v>218.7510312337712</v>
       </c>
       <c r="R29" t="n">
-        <v>33.63301275977983</v>
+        <v>33.63301275978017</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>63.90825019891636</v>
       </c>
       <c r="K31" t="n">
-        <v>102.9202346472951</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L31" t="n">
-        <v>101.6233125255146</v>
+        <v>224.9882289244</v>
       </c>
       <c r="M31" t="n">
-        <v>242.5502761237352</v>
+        <v>124.2537201887337</v>
       </c>
       <c r="N31" t="n">
-        <v>242.9834434186834</v>
+        <v>242.9834434186837</v>
       </c>
       <c r="O31" t="n">
-        <v>222.8231451824099</v>
+        <v>222.8231451824103</v>
       </c>
       <c r="P31" t="n">
-        <v>186.969445417206</v>
+        <v>186.9694454172064</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.21294846603716</v>
+        <v>85.2129484660375</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>209.5017307825132</v>
+        <v>150.5439582104948</v>
       </c>
       <c r="K32" t="n">
-        <v>379.3419608552174</v>
+        <v>379.3419608552173</v>
       </c>
       <c r="L32" t="n">
-        <v>488.1752952392209</v>
+        <v>488.1752952392208</v>
       </c>
       <c r="M32" t="n">
         <v>533.9872075302731</v>
@@ -37081,13 +37081,13 @@
         <v>518.9288160500992</v>
       </c>
       <c r="O32" t="n">
-        <v>385.9035947761792</v>
+        <v>444.8613673481983</v>
       </c>
       <c r="P32" t="n">
-        <v>367.2374400585209</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q32" t="n">
-        <v>95.38611483488586</v>
+        <v>232.1620433216357</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>77.31926228678094</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>170.7195524712382</v>
       </c>
       <c r="L34" t="n">
-        <v>238.3992410122646</v>
+        <v>158.1637604266722</v>
       </c>
       <c r="M34" t="n">
-        <v>197.030505893128</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
-        <v>119.6185270197983</v>
+        <v>256.3944555065482</v>
       </c>
       <c r="O34" t="n">
         <v>99.45822878352493</v>
@@ -37245,7 +37245,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>98.62396055390202</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>72.72580229576329</v>
+        <v>113.3073739251125</v>
       </c>
       <c r="K35" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L35" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M35" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N35" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P35" t="n">
-        <v>347.4402447044723</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37443,7 +37443,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>14.58789090194205</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37455,16 +37455,16 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>23.36805118910868</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>33.9436239844883</v>
+        <v>48.91104325139455</v>
       </c>
       <c r="L37" t="n">
         <v>101.6233125255146</v>
@@ -37482,7 +37482,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q37" t="n">
-        <v>32.09772592801087</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L38" t="n">
-        <v>468.3780998851717</v>
+        <v>468.3780998851721</v>
       </c>
       <c r="M38" t="n">
         <v>397.2112790435232</v>
@@ -37555,13 +37555,13 @@
         <v>548.2819527058061</v>
       </c>
       <c r="O38" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P38" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37680,10 +37680,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>14.58789090194205</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>13.99522435731956</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37695,7 +37695,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>23.36805118910868</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L40" t="n">
-        <v>101.6233125255146</v>
+        <v>124.9408781663589</v>
       </c>
       <c r="M40" t="n">
         <v>119.1853597248502</v>
@@ -37722,7 +37722,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
-        <v>242.5660323684674</v>
+        <v>283.1476039978169</v>
       </c>
       <c r="L41" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M41" t="n">
-        <v>563.34034418598</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N41" t="n">
-        <v>499.1316206960504</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O41" t="n">
         <v>308.0854388614484</v>
@@ -37798,10 +37798,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37917,10 +37917,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>14.58789090194205</v>
       </c>
       <c r="E43" t="n">
-        <v>1.123850630927054</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -37929,16 +37929,16 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>23.74757955407288</v>
       </c>
       <c r="K43" t="n">
-        <v>79.50539018351495</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L43" t="n">
         <v>101.6233125255146</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
-        <v>242.5660323684674</v>
+        <v>359.5447655011686</v>
       </c>
       <c r="L44" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M44" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
-        <v>499.1316206960504</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
         <v>308.0854388614484</v>
@@ -38102,7 +38102,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M45" t="n">
-        <v>489.9326803133602</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N45" t="n">
         <v>516.4299455789112</v>
@@ -38157,10 +38157,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>15.64014104616254</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>7.677424594682552</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38169,10 +38169,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>23.36805118910863</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>46.68561682995298</v>
       </c>
       <c r="K46" t="n">
         <v>33.9436239844883</v>
